--- a/INTLINE/data/136/ISTAT/Business confidence Index in the market services sector local_historical.xlsx
+++ b/INTLINE/data/136/ISTAT/Business confidence Index in the market services sector local_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HZ33"/>
+  <dimension ref="A1:IA33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1532,6 +1532,11 @@
           <t>2022-05</t>
         </is>
       </c>
+      <c r="IA1" s="1" t="inlineStr">
+        <is>
+          <t>2022-06</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -1618,22 +1623,22 @@
         <v>99.2</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="AC2" t="n">
-        <v>102.4</v>
+        <v>102.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AE2" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="AF2" t="n">
         <v>106.3</v>
       </c>
       <c r="AG2" t="n">
-        <v>106.8</v>
+        <v>106.7</v>
       </c>
       <c r="AH2" t="n">
         <v>99.8</v>
@@ -1660,10 +1665,10 @@
         <v>119.9</v>
       </c>
       <c r="AP2" t="n">
-        <v>118.5</v>
+        <v>118.6</v>
       </c>
       <c r="AQ2" t="n">
-        <v>118.4</v>
+        <v>118.3</v>
       </c>
       <c r="AR2" t="n">
         <v>116.5</v>
@@ -1687,10 +1692,10 @@
         <v>116</v>
       </c>
       <c r="AY2" t="n">
-        <v>118.1</v>
+        <v>118.2</v>
       </c>
       <c r="AZ2" t="n">
-        <v>121.6</v>
+        <v>121.7</v>
       </c>
       <c r="BA2" t="n">
         <v>109</v>
@@ -1699,7 +1704,7 @@
         <v>109.7</v>
       </c>
       <c r="BC2" t="n">
-        <v>115.3</v>
+        <v>115.2</v>
       </c>
       <c r="BD2" t="n">
         <v>108.9</v>
@@ -1723,7 +1728,7 @@
         <v>104</v>
       </c>
       <c r="BK2" t="n">
-        <v>98.8</v>
+        <v>98.90000000000001</v>
       </c>
       <c r="BL2" t="n">
         <v>95.90000000000001</v>
@@ -1732,16 +1737,16 @@
         <v>99</v>
       </c>
       <c r="BN2" t="n">
-        <v>102.1</v>
+        <v>102.2</v>
       </c>
       <c r="BO2" t="n">
-        <v>92.2</v>
+        <v>92</v>
       </c>
       <c r="BP2" t="n">
         <v>96.09999999999999</v>
       </c>
       <c r="BQ2" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="BR2" t="n">
         <v>93.5</v>
@@ -1765,16 +1770,16 @@
         <v>73.2</v>
       </c>
       <c r="BY2" t="n">
-        <v>76.40000000000001</v>
+        <v>76.5</v>
       </c>
       <c r="BZ2" t="n">
         <v>81.3</v>
       </c>
       <c r="CA2" t="n">
-        <v>84.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="CB2" t="n">
-        <v>86.7</v>
+        <v>86.59999999999999</v>
       </c>
       <c r="CC2" t="n">
         <v>93.90000000000001</v>
@@ -1798,7 +1803,7 @@
         <v>109.7</v>
       </c>
       <c r="CJ2" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="CK2" t="n">
         <v>111</v>
@@ -1807,7 +1812,7 @@
         <v>107.5</v>
       </c>
       <c r="CM2" t="n">
-        <v>90.40000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="CN2" t="n">
         <v>91.7</v>
@@ -1816,7 +1821,7 @@
         <v>94.7</v>
       </c>
       <c r="CP2" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="CQ2" t="n">
         <v>95.7</v>
@@ -1840,10 +1845,10 @@
         <v>103.6</v>
       </c>
       <c r="CX2" t="n">
-        <v>103.4</v>
+        <v>103.5</v>
       </c>
       <c r="CY2" t="n">
-        <v>101.3</v>
+        <v>101.2</v>
       </c>
       <c r="CZ2" t="n">
         <v>97.8</v>
@@ -1852,7 +1857,7 @@
         <v>95.40000000000001</v>
       </c>
       <c r="DB2" t="n">
-        <v>86.59999999999999</v>
+        <v>86.7</v>
       </c>
       <c r="DC2" t="n">
         <v>91.8</v>
@@ -1873,16 +1878,16 @@
         <v>86.2</v>
       </c>
       <c r="DI2" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="DJ2" t="n">
-        <v>82.5</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="DK2" t="n">
-        <v>83.7</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="DL2" t="n">
-        <v>83.40000000000001</v>
+        <v>83.3</v>
       </c>
       <c r="DM2" t="n">
         <v>79.2</v>
@@ -1903,25 +1908,25 @@
         <v>85.5</v>
       </c>
       <c r="DS2" t="n">
-        <v>76.90000000000001</v>
+        <v>77</v>
       </c>
       <c r="DT2" t="n">
         <v>79.3</v>
       </c>
       <c r="DU2" t="n">
-        <v>72.2</v>
+        <v>72.3</v>
       </c>
       <c r="DV2" t="n">
         <v>77.3</v>
       </c>
       <c r="DW2" t="n">
-        <v>79.2</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="DX2" t="n">
-        <v>77.40000000000001</v>
+        <v>77.3</v>
       </c>
       <c r="DY2" t="n">
-        <v>86.3</v>
+        <v>86.2</v>
       </c>
       <c r="DZ2" t="n">
         <v>81</v>
@@ -1936,25 +1941,25 @@
         <v>82.40000000000001</v>
       </c>
       <c r="ED2" t="n">
-        <v>93</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="EE2" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="EF2" t="n">
-        <v>95.7</v>
+        <v>95.8</v>
       </c>
       <c r="EG2" t="n">
-        <v>92.7</v>
+        <v>92.8</v>
       </c>
       <c r="EH2" t="n">
         <v>100.5</v>
       </c>
       <c r="EI2" t="n">
-        <v>98</v>
+        <v>97.8</v>
       </c>
       <c r="EJ2" t="n">
-        <v>100.8</v>
+        <v>100.7</v>
       </c>
       <c r="EK2" t="n">
         <v>93.2</v>
@@ -1984,13 +1989,13 @@
         <v>100.6</v>
       </c>
       <c r="ET2" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="EU2" t="n">
-        <v>102.2</v>
+        <v>102</v>
       </c>
       <c r="EV2" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="EW2" t="n">
         <v>102.5</v>
@@ -2002,37 +2007,37 @@
         <v>100.2</v>
       </c>
       <c r="EZ2" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="FA2" t="n">
         <v>108.4</v>
       </c>
       <c r="FB2" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="FC2" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="FD2" t="n">
         <v>101.3</v>
       </c>
       <c r="FE2" t="n">
-        <v>111.5</v>
+        <v>111.6</v>
       </c>
       <c r="FF2" t="n">
-        <v>107.1</v>
+        <v>107.2</v>
       </c>
       <c r="FG2" t="n">
-        <v>103.7</v>
+        <v>103.5</v>
       </c>
       <c r="FH2" t="n">
-        <v>104.7</v>
+        <v>104.6</v>
       </c>
       <c r="FI2" t="n">
         <v>103</v>
       </c>
       <c r="FJ2" t="n">
-        <v>98.8</v>
+        <v>98.7</v>
       </c>
       <c r="FK2" t="n">
         <v>102.1</v>
@@ -2041,25 +2046,25 @@
         <v>102</v>
       </c>
       <c r="FM2" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="FN2" t="n">
         <v>107.8</v>
       </c>
       <c r="FO2" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="FP2" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="FQ2" t="n">
         <v>106</v>
       </c>
       <c r="FR2" t="n">
-        <v>104.4</v>
+        <v>104.5</v>
       </c>
       <c r="FS2" t="n">
-        <v>104.4</v>
+        <v>104.3</v>
       </c>
       <c r="FT2" t="n">
         <v>100.6</v>
@@ -2071,13 +2076,13 @@
         <v>102.6</v>
       </c>
       <c r="FW2" t="n">
-        <v>102.6</v>
+        <v>102.5</v>
       </c>
       <c r="FX2" t="n">
-        <v>106.4</v>
+        <v>106.5</v>
       </c>
       <c r="FY2" t="n">
-        <v>104.8</v>
+        <v>104.9</v>
       </c>
       <c r="FZ2" t="n">
         <v>100.1</v>
@@ -2086,22 +2091,22 @@
         <v>105.9</v>
       </c>
       <c r="GB2" t="n">
-        <v>101.9</v>
+        <v>102</v>
       </c>
       <c r="GC2" t="n">
-        <v>100.8</v>
+        <v>100.9</v>
       </c>
       <c r="GD2" t="n">
-        <v>100.1</v>
+        <v>100.2</v>
       </c>
       <c r="GE2" t="n">
-        <v>100.4</v>
+        <v>100.3</v>
       </c>
       <c r="GF2" t="n">
         <v>99.2</v>
       </c>
       <c r="GG2" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="GH2" t="n">
         <v>95.40000000000001</v>
@@ -2116,22 +2121,22 @@
         <v>92.7</v>
       </c>
       <c r="GL2" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="GM2" t="n">
         <v>93.90000000000001</v>
       </c>
       <c r="GN2" t="n">
-        <v>94.8</v>
+        <v>94.90000000000001</v>
       </c>
       <c r="GO2" t="n">
-        <v>89.90000000000001</v>
+        <v>90</v>
       </c>
       <c r="GP2" t="n">
-        <v>90.2</v>
+        <v>90.3</v>
       </c>
       <c r="GQ2" t="n">
-        <v>90.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="GR2" t="n">
         <v>90.7</v>
@@ -2146,29 +2151,29 @@
         <v>93.09999999999999</v>
       </c>
       <c r="GV2" t="n">
-        <v>92.2</v>
+        <v>92.3</v>
       </c>
       <c r="GW2" t="n">
-        <v>94.5</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="GX2" t="n">
         <v>90.90000000000001</v>
       </c>
       <c r="GY2" t="n">
-        <v>89.3</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="GZ2" t="n">
-        <v>71.09999999999999</v>
+        <v>71.2</v>
       </c>
       <c r="HA2" t="inlineStr"/>
       <c r="HB2" t="n">
-        <v>44.5</v>
+        <v>44.6</v>
       </c>
       <c r="HC2" t="n">
-        <v>51.8</v>
+        <v>51.7</v>
       </c>
       <c r="HD2" t="n">
-        <v>68.09999999999999</v>
+        <v>68</v>
       </c>
       <c r="HE2" t="n">
         <v>73.59999999999999</v>
@@ -2189,52 +2194,55 @@
         <v>89.7</v>
       </c>
       <c r="HK2" t="n">
-        <v>88.40000000000001</v>
+        <v>88.5</v>
       </c>
       <c r="HL2" t="n">
-        <v>86.3</v>
+        <v>86.40000000000001</v>
       </c>
       <c r="HM2" t="n">
-        <v>93.59999999999999</v>
+        <v>93.7</v>
       </c>
       <c r="HN2" t="n">
-        <v>102.3</v>
+        <v>102.4</v>
       </c>
       <c r="HO2" t="n">
-        <v>110.3</v>
+        <v>110.1</v>
       </c>
       <c r="HP2" t="n">
-        <v>116.8</v>
+        <v>116.7</v>
       </c>
       <c r="HQ2" t="n">
-        <v>115.5</v>
+        <v>115.4</v>
       </c>
       <c r="HR2" t="n">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="HS2" t="n">
         <v>110</v>
       </c>
       <c r="HT2" t="n">
-        <v>113</v>
+        <v>113.1</v>
       </c>
       <c r="HU2" t="n">
         <v>106.8</v>
       </c>
       <c r="HV2" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="HW2" t="n">
-        <v>101.2</v>
+        <v>101.3</v>
       </c>
       <c r="HX2" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="HY2" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="HZ2" t="n">
-        <v>104</v>
+        <v>104.1</v>
+      </c>
+      <c r="IA2" t="n">
+        <v>108.8</v>
       </c>
     </row>
     <row r="3">
@@ -2322,19 +2330,19 @@
         <v>101.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="AC3" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>101.7</v>
+        <v>101.8</v>
       </c>
       <c r="AE3" t="n">
-        <v>95.40000000000001</v>
+        <v>95.2</v>
       </c>
       <c r="AF3" t="n">
-        <v>101.7</v>
+        <v>101.6</v>
       </c>
       <c r="AG3" t="n">
         <v>104.8</v>
@@ -2364,16 +2372,16 @@
         <v>113.3</v>
       </c>
       <c r="AP3" t="n">
-        <v>119.6</v>
+        <v>119.7</v>
       </c>
       <c r="AQ3" t="n">
-        <v>115.7</v>
+        <v>115.5</v>
       </c>
       <c r="AR3" t="n">
-        <v>111.8</v>
+        <v>111.7</v>
       </c>
       <c r="AS3" t="n">
-        <v>116.9</v>
+        <v>117</v>
       </c>
       <c r="AT3" t="n">
         <v>117.7</v>
@@ -2397,13 +2405,13 @@
         <v>116.3</v>
       </c>
       <c r="BA3" t="n">
-        <v>118.9</v>
+        <v>119</v>
       </c>
       <c r="BB3" t="n">
         <v>116</v>
       </c>
       <c r="BC3" t="n">
-        <v>111.7</v>
+        <v>111.5</v>
       </c>
       <c r="BD3" t="n">
         <v>107</v>
@@ -2433,19 +2441,19 @@
         <v>99.5</v>
       </c>
       <c r="BM3" t="n">
-        <v>95.2</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="BN3" t="n">
         <v>90.09999999999999</v>
       </c>
       <c r="BO3" t="n">
-        <v>100.8</v>
+        <v>100.5</v>
       </c>
       <c r="BP3" t="n">
         <v>98.3</v>
       </c>
       <c r="BQ3" t="n">
-        <v>96.09999999999999</v>
+        <v>96</v>
       </c>
       <c r="BR3" t="n">
         <v>100.7</v>
@@ -2457,28 +2465,28 @@
         <v>86.90000000000001</v>
       </c>
       <c r="BU3" t="n">
-        <v>89.7</v>
+        <v>89.8</v>
       </c>
       <c r="BV3" t="n">
         <v>92.2</v>
       </c>
       <c r="BW3" t="n">
-        <v>85</v>
+        <v>85.09999999999999</v>
       </c>
       <c r="BX3" t="n">
-        <v>76.09999999999999</v>
+        <v>76.2</v>
       </c>
       <c r="BY3" t="n">
-        <v>89.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="BZ3" t="n">
-        <v>97.2</v>
+        <v>97.3</v>
       </c>
       <c r="CA3" t="n">
-        <v>91.7</v>
+        <v>91.5</v>
       </c>
       <c r="CB3" t="n">
-        <v>93.09999999999999</v>
+        <v>93</v>
       </c>
       <c r="CC3" t="n">
         <v>92.7</v>
@@ -2502,16 +2510,16 @@
         <v>94.2</v>
       </c>
       <c r="CJ3" t="n">
-        <v>102.8</v>
+        <v>102.9</v>
       </c>
       <c r="CK3" t="n">
         <v>101.1</v>
       </c>
       <c r="CL3" t="n">
-        <v>94.7</v>
+        <v>94.8</v>
       </c>
       <c r="CM3" t="n">
-        <v>93.2</v>
+        <v>93</v>
       </c>
       <c r="CN3" t="n">
         <v>101.7</v>
@@ -2526,28 +2534,28 @@
         <v>98.3</v>
       </c>
       <c r="CR3" t="n">
-        <v>100.3</v>
+        <v>100.4</v>
       </c>
       <c r="CS3" t="n">
         <v>101.2</v>
       </c>
       <c r="CT3" t="n">
-        <v>108.1</v>
+        <v>108.2</v>
       </c>
       <c r="CU3" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="CV3" t="n">
         <v>101.8</v>
       </c>
       <c r="CW3" t="n">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="CX3" t="n">
-        <v>101.1</v>
+        <v>101.2</v>
       </c>
       <c r="CY3" t="n">
-        <v>110.2</v>
+        <v>110</v>
       </c>
       <c r="CZ3" t="n">
         <v>103.4</v>
@@ -2565,25 +2573,25 @@
         <v>95.59999999999999</v>
       </c>
       <c r="DE3" t="n">
-        <v>96.2</v>
+        <v>96.3</v>
       </c>
       <c r="DF3" t="n">
         <v>89</v>
       </c>
       <c r="DG3" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="DH3" t="n">
         <v>86.90000000000001</v>
       </c>
       <c r="DI3" t="n">
-        <v>84.40000000000001</v>
+        <v>84.5</v>
       </c>
       <c r="DJ3" t="n">
-        <v>80</v>
+        <v>80.09999999999999</v>
       </c>
       <c r="DK3" t="n">
-        <v>73.90000000000001</v>
+        <v>73.7</v>
       </c>
       <c r="DL3" t="n">
         <v>82.7</v>
@@ -2592,7 +2600,7 @@
         <v>75.59999999999999</v>
       </c>
       <c r="DN3" t="n">
-        <v>77.7</v>
+        <v>77.8</v>
       </c>
       <c r="DO3" t="n">
         <v>78.40000000000001</v>
@@ -2601,7 +2609,7 @@
         <v>80.8</v>
       </c>
       <c r="DQ3" t="n">
-        <v>77.09999999999999</v>
+        <v>77.2</v>
       </c>
       <c r="DR3" t="n">
         <v>77.5</v>
@@ -2610,22 +2618,22 @@
         <v>78.3</v>
       </c>
       <c r="DT3" t="n">
-        <v>80.2</v>
+        <v>80.3</v>
       </c>
       <c r="DU3" t="n">
-        <v>84.59999999999999</v>
+        <v>84.7</v>
       </c>
       <c r="DV3" t="n">
-        <v>83.5</v>
+        <v>83.59999999999999</v>
       </c>
       <c r="DW3" t="n">
-        <v>78.2</v>
+        <v>78</v>
       </c>
       <c r="DX3" t="n">
-        <v>80.5</v>
+        <v>80.40000000000001</v>
       </c>
       <c r="DY3" t="n">
-        <v>83.09999999999999</v>
+        <v>83</v>
       </c>
       <c r="DZ3" t="n">
         <v>77.09999999999999</v>
@@ -2634,7 +2642,7 @@
         <v>76.5</v>
       </c>
       <c r="EB3" t="n">
-        <v>90.5</v>
+        <v>90.59999999999999</v>
       </c>
       <c r="EC3" t="n">
         <v>81.3</v>
@@ -2643,25 +2651,25 @@
         <v>86.2</v>
       </c>
       <c r="EE3" t="n">
-        <v>84.2</v>
+        <v>84.3</v>
       </c>
       <c r="EF3" t="n">
         <v>94.09999999999999</v>
       </c>
       <c r="EG3" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="EH3" t="n">
-        <v>86</v>
+        <v>86.09999999999999</v>
       </c>
       <c r="EI3" t="n">
-        <v>90.7</v>
+        <v>90.40000000000001</v>
       </c>
       <c r="EJ3" t="n">
         <v>89.2</v>
       </c>
       <c r="EK3" t="n">
-        <v>91.59999999999999</v>
+        <v>91.5</v>
       </c>
       <c r="EL3" t="n">
         <v>91.09999999999999</v>
@@ -2676,25 +2684,25 @@
         <v>96.8</v>
       </c>
       <c r="EP3" t="n">
-        <v>99</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="EQ3" t="n">
         <v>103.8</v>
       </c>
       <c r="ER3" t="n">
-        <v>99.90000000000001</v>
+        <v>100</v>
       </c>
       <c r="ES3" t="n">
         <v>107</v>
       </c>
       <c r="ET3" t="n">
-        <v>111</v>
+        <v>111.1</v>
       </c>
       <c r="EU3" t="n">
-        <v>110.6</v>
+        <v>110.3</v>
       </c>
       <c r="EV3" t="n">
-        <v>105.5</v>
+        <v>105.4</v>
       </c>
       <c r="EW3" t="n">
         <v>106.5</v>
@@ -2703,76 +2711,76 @@
         <v>102.2</v>
       </c>
       <c r="EY3" t="n">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="EZ3" t="n">
         <v>107.7</v>
       </c>
       <c r="FA3" t="n">
-        <v>103.3</v>
+        <v>103.4</v>
       </c>
       <c r="FB3" t="n">
-        <v>105.7</v>
+        <v>105.8</v>
       </c>
       <c r="FC3" t="n">
-        <v>107.8</v>
+        <v>107.9</v>
       </c>
       <c r="FD3" t="n">
         <v>112.1</v>
       </c>
       <c r="FE3" t="n">
-        <v>107</v>
+        <v>107.1</v>
       </c>
       <c r="FF3" t="n">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="FG3" t="n">
-        <v>107.1</v>
+        <v>106.8</v>
       </c>
       <c r="FH3" t="n">
-        <v>103.8</v>
+        <v>103.6</v>
       </c>
       <c r="FI3" t="n">
         <v>102.5</v>
       </c>
       <c r="FJ3" t="n">
-        <v>93.2</v>
+        <v>93.09999999999999</v>
       </c>
       <c r="FK3" t="n">
-        <v>107.1</v>
+        <v>107</v>
       </c>
       <c r="FL3" t="n">
         <v>107.4</v>
       </c>
       <c r="FM3" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="FN3" t="n">
         <v>101.3</v>
       </c>
       <c r="FO3" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="FP3" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="FQ3" t="n">
-        <v>104.3</v>
+        <v>104.4</v>
       </c>
       <c r="FR3" t="n">
-        <v>107.3</v>
+        <v>107.4</v>
       </c>
       <c r="FS3" t="n">
-        <v>109.5</v>
+        <v>109.1</v>
       </c>
       <c r="FT3" t="n">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="FU3" t="n">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="FV3" t="n">
-        <v>116.5</v>
+        <v>116.4</v>
       </c>
       <c r="FW3" t="n">
         <v>112</v>
@@ -2784,25 +2792,25 @@
         <v>111.6</v>
       </c>
       <c r="FZ3" t="n">
-        <v>106.8</v>
+        <v>106.9</v>
       </c>
       <c r="GA3" t="n">
-        <v>113.6</v>
+        <v>113.7</v>
       </c>
       <c r="GB3" t="n">
-        <v>103.1</v>
+        <v>103.2</v>
       </c>
       <c r="GC3" t="n">
-        <v>98.90000000000001</v>
+        <v>99</v>
       </c>
       <c r="GD3" t="n">
-        <v>95.90000000000001</v>
+        <v>96.09999999999999</v>
       </c>
       <c r="GE3" t="n">
-        <v>101</v>
+        <v>100.6</v>
       </c>
       <c r="GF3" t="n">
-        <v>104.3</v>
+        <v>104.2</v>
       </c>
       <c r="GG3" t="n">
         <v>105.2</v>
@@ -2811,7 +2819,7 @@
         <v>105.7</v>
       </c>
       <c r="GI3" t="n">
-        <v>103</v>
+        <v>102.9</v>
       </c>
       <c r="GJ3" t="n">
         <v>98.8</v>
@@ -2820,25 +2828,25 @@
         <v>103.5</v>
       </c>
       <c r="GL3" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="GM3" t="n">
         <v>98.8</v>
       </c>
       <c r="GN3" t="n">
-        <v>104</v>
+        <v>104.2</v>
       </c>
       <c r="GO3" t="n">
-        <v>102.7</v>
+        <v>102.9</v>
       </c>
       <c r="GP3" t="n">
-        <v>100.1</v>
+        <v>100.3</v>
       </c>
       <c r="GQ3" t="n">
-        <v>101.1</v>
+        <v>100.6</v>
       </c>
       <c r="GR3" t="n">
-        <v>101.4</v>
+        <v>101.2</v>
       </c>
       <c r="GS3" t="n">
         <v>96.59999999999999</v>
@@ -2853,26 +2861,26 @@
         <v>93.90000000000001</v>
       </c>
       <c r="GW3" t="n">
-        <v>94.09999999999999</v>
+        <v>94.2</v>
       </c>
       <c r="GX3" t="n">
         <v>96.2</v>
       </c>
       <c r="GY3" t="n">
-        <v>99.40000000000001</v>
+        <v>99.5</v>
       </c>
       <c r="GZ3" t="n">
-        <v>75.09999999999999</v>
+        <v>75.2</v>
       </c>
       <c r="HA3" t="inlineStr"/>
       <c r="HB3" t="n">
-        <v>28.3</v>
+        <v>28.6</v>
       </c>
       <c r="HC3" t="n">
-        <v>48.8</v>
+        <v>48.3</v>
       </c>
       <c r="HD3" t="n">
-        <v>57.2</v>
+        <v>57.1</v>
       </c>
       <c r="HE3" t="n">
         <v>65</v>
@@ -2881,34 +2889,34 @@
         <v>85.09999999999999</v>
       </c>
       <c r="HG3" t="n">
-        <v>87.40000000000001</v>
+        <v>87.3</v>
       </c>
       <c r="HH3" t="n">
         <v>71.2</v>
       </c>
       <c r="HI3" t="n">
-        <v>64.8</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="HJ3" t="n">
-        <v>73.5</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="HK3" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="HL3" t="n">
-        <v>79.7</v>
+        <v>79.8</v>
       </c>
       <c r="HM3" t="n">
-        <v>88.09999999999999</v>
+        <v>88.3</v>
       </c>
       <c r="HN3" t="n">
-        <v>98.90000000000001</v>
+        <v>99.09999999999999</v>
       </c>
       <c r="HO3" t="n">
-        <v>104.5</v>
+        <v>104</v>
       </c>
       <c r="HP3" t="n">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="HQ3" t="n">
         <v>111.8</v>
@@ -2917,7 +2925,7 @@
         <v>111.3</v>
       </c>
       <c r="HS3" t="n">
-        <v>110.6</v>
+        <v>110.5</v>
       </c>
       <c r="HT3" t="n">
         <v>118.2</v>
@@ -2926,19 +2934,22 @@
         <v>118.7</v>
       </c>
       <c r="HV3" t="n">
+        <v>96.09999999999999</v>
+      </c>
+      <c r="HW3" t="n">
+        <v>98.59999999999999</v>
+      </c>
+      <c r="HX3" t="n">
+        <v>97.5</v>
+      </c>
+      <c r="HY3" t="n">
         <v>96</v>
       </c>
-      <c r="HW3" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="HX3" t="n">
-        <v>97.3</v>
-      </c>
-      <c r="HY3" t="n">
-        <v>95.8</v>
-      </c>
       <c r="HZ3" t="n">
-        <v>98.59999999999999</v>
+        <v>98.90000000000001</v>
+      </c>
+      <c r="IA3" t="n">
+        <v>106.1</v>
       </c>
     </row>
     <row r="4">
@@ -3038,7 +3049,7 @@
         <v>105.4</v>
       </c>
       <c r="AF4" t="n">
-        <v>99.5</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="AG4" t="n">
         <v>102.2</v>
@@ -3071,13 +3082,13 @@
         <v>113.2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>119.8</v>
+        <v>119.7</v>
       </c>
       <c r="AR4" t="n">
         <v>117</v>
       </c>
       <c r="AS4" t="n">
-        <v>119.6</v>
+        <v>119.7</v>
       </c>
       <c r="AT4" t="n">
         <v>114.5</v>
@@ -3131,7 +3142,7 @@
         <v>110.5</v>
       </c>
       <c r="BK4" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="BL4" t="n">
         <v>101.1</v>
@@ -3143,13 +3154,13 @@
         <v>117</v>
       </c>
       <c r="BO4" t="n">
-        <v>120.4</v>
+        <v>120.3</v>
       </c>
       <c r="BP4" t="n">
         <v>109.3</v>
       </c>
       <c r="BQ4" t="n">
-        <v>100.7</v>
+        <v>100.6</v>
       </c>
       <c r="BR4" t="n">
         <v>105.8</v>
@@ -3179,13 +3190,13 @@
         <v>91.3</v>
       </c>
       <c r="CA4" t="n">
-        <v>92.2</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="CB4" t="n">
         <v>98.2</v>
       </c>
       <c r="CC4" t="n">
-        <v>104.8</v>
+        <v>104.7</v>
       </c>
       <c r="CD4" t="n">
         <v>98.59999999999999</v>
@@ -3209,7 +3220,7 @@
         <v>88.8</v>
       </c>
       <c r="CK4" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="CL4" t="n">
         <v>94.59999999999999</v>
@@ -3245,16 +3256,16 @@
         <v>93.09999999999999</v>
       </c>
       <c r="CW4" t="n">
-        <v>95.40000000000001</v>
+        <v>95.5</v>
       </c>
       <c r="CX4" t="n">
-        <v>97.3</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="CY4" t="n">
         <v>103.1</v>
       </c>
       <c r="CZ4" t="n">
-        <v>102.3</v>
+        <v>102.2</v>
       </c>
       <c r="DA4" t="n">
         <v>102.1</v>
@@ -3278,7 +3289,7 @@
         <v>77.09999999999999</v>
       </c>
       <c r="DH4" t="n">
-        <v>80.90000000000001</v>
+        <v>81</v>
       </c>
       <c r="DI4" t="n">
         <v>78.2</v>
@@ -3323,7 +3334,7 @@
         <v>66</v>
       </c>
       <c r="DW4" t="n">
-        <v>70.5</v>
+        <v>70.40000000000001</v>
       </c>
       <c r="DX4" t="n">
         <v>83.09999999999999</v>
@@ -3353,13 +3364,13 @@
         <v>96.90000000000001</v>
       </c>
       <c r="EG4" t="n">
-        <v>85.40000000000001</v>
+        <v>85.5</v>
       </c>
       <c r="EH4" t="n">
         <v>84.40000000000001</v>
       </c>
       <c r="EI4" t="n">
-        <v>90.59999999999999</v>
+        <v>90.5</v>
       </c>
       <c r="EJ4" t="n">
         <v>105.1</v>
@@ -3368,7 +3379,7 @@
         <v>102.3</v>
       </c>
       <c r="EL4" t="n">
-        <v>88.40000000000001</v>
+        <v>88.3</v>
       </c>
       <c r="EM4" t="n">
         <v>92.7</v>
@@ -3386,22 +3397,22 @@
         <v>106.9</v>
       </c>
       <c r="ER4" t="n">
-        <v>103</v>
+        <v>103.1</v>
       </c>
       <c r="ES4" t="n">
-        <v>100.4</v>
+        <v>100.5</v>
       </c>
       <c r="ET4" t="n">
         <v>100.4</v>
       </c>
       <c r="EU4" t="n">
-        <v>102.1</v>
+        <v>102</v>
       </c>
       <c r="EV4" t="n">
-        <v>110.2</v>
+        <v>110.1</v>
       </c>
       <c r="EW4" t="n">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="EX4" t="n">
         <v>113.2</v>
@@ -3431,7 +3442,7 @@
         <v>118.2</v>
       </c>
       <c r="FG4" t="n">
-        <v>107.3</v>
+        <v>107.2</v>
       </c>
       <c r="FH4" t="n">
         <v>107.3</v>
@@ -3464,13 +3475,13 @@
         <v>110.6</v>
       </c>
       <c r="FR4" t="n">
-        <v>106.7</v>
+        <v>106.8</v>
       </c>
       <c r="FS4" t="n">
-        <v>108.8</v>
+        <v>108.7</v>
       </c>
       <c r="FT4" t="n">
-        <v>109.6</v>
+        <v>109.5</v>
       </c>
       <c r="FU4" t="n">
         <v>115.6</v>
@@ -3491,22 +3502,22 @@
         <v>115.1</v>
       </c>
       <c r="GA4" t="n">
-        <v>115.6</v>
+        <v>115.7</v>
       </c>
       <c r="GB4" t="n">
-        <v>112.7</v>
+        <v>112.8</v>
       </c>
       <c r="GC4" t="n">
         <v>118.8</v>
       </c>
       <c r="GD4" t="n">
-        <v>120.4</v>
+        <v>120.5</v>
       </c>
       <c r="GE4" t="n">
-        <v>122.4</v>
+        <v>122.3</v>
       </c>
       <c r="GF4" t="n">
-        <v>118.1</v>
+        <v>118</v>
       </c>
       <c r="GG4" t="n">
         <v>114.6</v>
@@ -3527,22 +3538,22 @@
         <v>100.5</v>
       </c>
       <c r="GM4" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="GN4" t="n">
-        <v>101.5</v>
+        <v>101.6</v>
       </c>
       <c r="GO4" t="n">
-        <v>106</v>
+        <v>106.1</v>
       </c>
       <c r="GP4" t="n">
         <v>108.6</v>
       </c>
       <c r="GQ4" t="n">
-        <v>106.4</v>
+        <v>106.3</v>
       </c>
       <c r="GR4" t="n">
-        <v>110.4</v>
+        <v>110.3</v>
       </c>
       <c r="GS4" t="n">
         <v>109.4</v>
@@ -3560,23 +3571,23 @@
         <v>110.7</v>
       </c>
       <c r="GX4" t="n">
-        <v>109</v>
+        <v>109.1</v>
       </c>
       <c r="GY4" t="n">
         <v>105.3</v>
       </c>
       <c r="GZ4" t="n">
-        <v>77.40000000000001</v>
+        <v>77.5</v>
       </c>
       <c r="HA4" t="inlineStr"/>
       <c r="HB4" t="n">
         <v>41</v>
       </c>
       <c r="HC4" t="n">
-        <v>54.1</v>
+        <v>54</v>
       </c>
       <c r="HD4" t="n">
-        <v>67.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="HE4" t="n">
         <v>81.09999999999999</v>
@@ -3588,7 +3599,7 @@
         <v>89</v>
       </c>
       <c r="HH4" t="n">
-        <v>75.3</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="HI4" t="n">
         <v>76</v>
@@ -3600,22 +3611,22 @@
         <v>82.2</v>
       </c>
       <c r="HL4" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="HM4" t="n">
-        <v>81.40000000000001</v>
+        <v>81.5</v>
       </c>
       <c r="HN4" t="n">
-        <v>98.7</v>
+        <v>98.8</v>
       </c>
       <c r="HO4" t="n">
-        <v>105.1</v>
+        <v>105</v>
       </c>
       <c r="HP4" t="n">
         <v>112</v>
       </c>
       <c r="HQ4" t="n">
-        <v>111.4</v>
+        <v>111.3</v>
       </c>
       <c r="HR4" t="n">
         <v>115.1</v>
@@ -3627,7 +3638,7 @@
         <v>107</v>
       </c>
       <c r="HU4" t="n">
-        <v>104.9</v>
+        <v>105</v>
       </c>
       <c r="HV4" t="n">
         <v>85.5</v>
@@ -3636,13 +3647,16 @@
         <v>99.7</v>
       </c>
       <c r="HX4" t="n">
-        <v>91.59999999999999</v>
+        <v>91.7</v>
       </c>
       <c r="HY4" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="HZ4" t="n">
-        <v>105.2</v>
+        <v>105.3</v>
+      </c>
+      <c r="IA4" t="n">
+        <v>110.5</v>
       </c>
     </row>
     <row r="5">
@@ -3730,82 +3744,82 @@
         <v>101.7</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.5</v>
+        <v>94.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.6</v>
+        <v>100.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>101.5</v>
+        <v>101.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>90.40000000000001</v>
+        <v>90.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>98.5</v>
+        <v>98.7</v>
       </c>
       <c r="AG5" t="n">
         <v>96.2</v>
       </c>
       <c r="AH5" t="n">
-        <v>94.90000000000001</v>
+        <v>95</v>
       </c>
       <c r="AI5" t="n">
         <v>107.9</v>
       </c>
       <c r="AJ5" t="n">
-        <v>107.1</v>
+        <v>107</v>
       </c>
       <c r="AK5" t="n">
         <v>102.4</v>
       </c>
       <c r="AL5" t="n">
-        <v>109.1</v>
+        <v>109</v>
       </c>
       <c r="AM5" t="n">
-        <v>103.6</v>
+        <v>103.5</v>
       </c>
       <c r="AN5" t="n">
-        <v>104.2</v>
+        <v>104.3</v>
       </c>
       <c r="AO5" t="n">
-        <v>109.7</v>
+        <v>109.6</v>
       </c>
       <c r="AP5" t="n">
-        <v>107</v>
+        <v>106.9</v>
       </c>
       <c r="AQ5" t="n">
         <v>108.4</v>
       </c>
       <c r="AR5" t="n">
-        <v>97.90000000000001</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="AS5" t="n">
-        <v>103.9</v>
+        <v>104</v>
       </c>
       <c r="AT5" t="n">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="AU5" t="n">
-        <v>106.2</v>
+        <v>106.1</v>
       </c>
       <c r="AV5" t="n">
-        <v>107.1</v>
+        <v>107</v>
       </c>
       <c r="AW5" t="n">
+        <v>111.8</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>102.7</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>111.9</v>
       </c>
-      <c r="AX5" t="n">
-        <v>102.8</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>115.4</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>111.8</v>
-      </c>
       <c r="BA5" t="n">
-        <v>107.7</v>
+        <v>107.6</v>
       </c>
       <c r="BB5" t="n">
         <v>105.5</v>
@@ -3814,19 +3828,19 @@
         <v>108.4</v>
       </c>
       <c r="BD5" t="n">
-        <v>95.09999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="BE5" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="BF5" t="n">
         <v>103.3</v>
       </c>
       <c r="BG5" t="n">
-        <v>92.59999999999999</v>
+        <v>92.7</v>
       </c>
       <c r="BH5" t="n">
-        <v>97.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="BI5" t="n">
         <v>99.59999999999999</v>
@@ -3835,28 +3849,28 @@
         <v>101</v>
       </c>
       <c r="BK5" t="n">
-        <v>97.40000000000001</v>
+        <v>97.3</v>
       </c>
       <c r="BL5" t="n">
-        <v>99.8</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="BM5" t="n">
         <v>97.59999999999999</v>
       </c>
       <c r="BN5" t="n">
-        <v>99.8</v>
+        <v>99.7</v>
       </c>
       <c r="BO5" t="n">
-        <v>92.59999999999999</v>
+        <v>92.5</v>
       </c>
       <c r="BP5" t="n">
-        <v>97.8</v>
+        <v>98</v>
       </c>
       <c r="BQ5" t="n">
         <v>91.8</v>
       </c>
       <c r="BR5" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="BS5" t="n">
         <v>92.59999999999999</v>
@@ -3865,7 +3879,7 @@
         <v>90.2</v>
       </c>
       <c r="BU5" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="BV5" t="n">
         <v>90.40000000000001</v>
@@ -3874,16 +3888,16 @@
         <v>87.8</v>
       </c>
       <c r="BX5" t="n">
-        <v>75.7</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="BY5" t="n">
         <v>70.5</v>
       </c>
       <c r="BZ5" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="CA5" t="n">
-        <v>80.3</v>
+        <v>80.2</v>
       </c>
       <c r="CB5" t="n">
         <v>83.59999999999999</v>
@@ -3892,25 +3906,25 @@
         <v>90.59999999999999</v>
       </c>
       <c r="CD5" t="n">
-        <v>91.09999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="CE5" t="n">
-        <v>83.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="CF5" t="n">
-        <v>96.40000000000001</v>
+        <v>96.3</v>
       </c>
       <c r="CG5" t="n">
-        <v>98.5</v>
+        <v>98.40000000000001</v>
       </c>
       <c r="CH5" t="n">
         <v>89.7</v>
       </c>
       <c r="CI5" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="CJ5" t="n">
-        <v>97.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="CK5" t="n">
         <v>101.1</v>
@@ -3919,10 +3933,10 @@
         <v>103.7</v>
       </c>
       <c r="CM5" t="n">
-        <v>101.1</v>
+        <v>100.9</v>
       </c>
       <c r="CN5" t="n">
-        <v>114</v>
+        <v>114.1</v>
       </c>
       <c r="CO5" t="n">
         <v>99.59999999999999</v>
@@ -3943,10 +3957,10 @@
         <v>96.59999999999999</v>
       </c>
       <c r="CU5" t="n">
-        <v>90.09999999999999</v>
+        <v>90.2</v>
       </c>
       <c r="CV5" t="n">
-        <v>90.59999999999999</v>
+        <v>90.7</v>
       </c>
       <c r="CW5" t="n">
         <v>101.7</v>
@@ -3955,7 +3969,7 @@
         <v>94.8</v>
       </c>
       <c r="CY5" t="n">
-        <v>103.5</v>
+        <v>103.2</v>
       </c>
       <c r="CZ5" t="n">
         <v>85.59999999999999</v>
@@ -3982,22 +3996,22 @@
         <v>79.40000000000001</v>
       </c>
       <c r="DH5" t="n">
-        <v>85.09999999999999</v>
+        <v>85.3</v>
       </c>
       <c r="DI5" t="n">
-        <v>82.7</v>
+        <v>82.8</v>
       </c>
       <c r="DJ5" t="n">
         <v>76.3</v>
       </c>
       <c r="DK5" t="n">
-        <v>72.40000000000001</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="DL5" t="n">
         <v>74.3</v>
       </c>
       <c r="DM5" t="n">
-        <v>69.59999999999999</v>
+        <v>69.7</v>
       </c>
       <c r="DN5" t="n">
         <v>71.90000000000001</v>
@@ -4018,16 +4032,16 @@
         <v>85.7</v>
       </c>
       <c r="DT5" t="n">
-        <v>76.8</v>
+        <v>76.90000000000001</v>
       </c>
       <c r="DU5" t="n">
-        <v>67</v>
+        <v>67.2</v>
       </c>
       <c r="DV5" t="n">
-        <v>82.3</v>
+        <v>82.5</v>
       </c>
       <c r="DW5" t="n">
-        <v>80.8</v>
+        <v>80.5</v>
       </c>
       <c r="DX5" t="n">
         <v>77.2</v>
@@ -4039,7 +4053,7 @@
         <v>84.59999999999999</v>
       </c>
       <c r="EA5" t="n">
-        <v>85</v>
+        <v>84.90000000000001</v>
       </c>
       <c r="EB5" t="n">
         <v>89</v>
@@ -4051,22 +4065,22 @@
         <v>100</v>
       </c>
       <c r="EE5" t="n">
-        <v>91.5</v>
+        <v>91.59999999999999</v>
       </c>
       <c r="EF5" t="n">
-        <v>91</v>
+        <v>91.09999999999999</v>
       </c>
       <c r="EG5" t="n">
-        <v>105.8</v>
+        <v>105.9</v>
       </c>
       <c r="EH5" t="n">
-        <v>86.3</v>
+        <v>86.5</v>
       </c>
       <c r="EI5" t="n">
-        <v>96.90000000000001</v>
+        <v>96.5</v>
       </c>
       <c r="EJ5" t="n">
-        <v>93.7</v>
+        <v>93.59999999999999</v>
       </c>
       <c r="EK5" t="n">
         <v>96</v>
@@ -4075,37 +4089,37 @@
         <v>97.90000000000001</v>
       </c>
       <c r="EM5" t="n">
-        <v>103.5</v>
+        <v>103.4</v>
       </c>
       <c r="EN5" t="n">
         <v>95.90000000000001</v>
       </c>
       <c r="EO5" t="n">
-        <v>102.5</v>
+        <v>102.6</v>
       </c>
       <c r="EP5" t="n">
         <v>98.09999999999999</v>
       </c>
       <c r="EQ5" t="n">
-        <v>91.8</v>
+        <v>92</v>
       </c>
       <c r="ER5" t="n">
-        <v>100.6</v>
+        <v>100.7</v>
       </c>
       <c r="ES5" t="n">
-        <v>84.5</v>
+        <v>84.7</v>
       </c>
       <c r="ET5" t="n">
-        <v>96.59999999999999</v>
+        <v>96.8</v>
       </c>
       <c r="EU5" t="n">
-        <v>96.3</v>
+        <v>95.8</v>
       </c>
       <c r="EV5" t="n">
-        <v>111.4</v>
+        <v>111.3</v>
       </c>
       <c r="EW5" t="n">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
       <c r="EX5" t="n">
         <v>102.3</v>
@@ -4114,239 +4128,242 @@
         <v>107.4</v>
       </c>
       <c r="EZ5" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="FA5" t="n">
-        <v>102.9</v>
+        <v>103</v>
       </c>
       <c r="FB5" t="n">
         <v>99.8</v>
       </c>
       <c r="FC5" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="FD5" t="n">
-        <v>86.2</v>
+        <v>86.3</v>
       </c>
       <c r="FE5" t="n">
-        <v>104.4</v>
+        <v>104.6</v>
       </c>
       <c r="FF5" t="n">
-        <v>106.7</v>
+        <v>106.9</v>
       </c>
       <c r="FG5" t="n">
-        <v>110.1</v>
+        <v>109.6</v>
       </c>
       <c r="FH5" t="n">
-        <v>104.2</v>
+        <v>104</v>
       </c>
       <c r="FI5" t="n">
-        <v>99.5</v>
+        <v>99.40000000000001</v>
       </c>
       <c r="FJ5" t="n">
-        <v>110</v>
+        <v>109.9</v>
       </c>
       <c r="FK5" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="FL5" t="n">
-        <v>105</v>
+        <v>105.1</v>
       </c>
       <c r="FM5" t="n">
-        <v>97.5</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="FN5" t="n">
         <v>109</v>
       </c>
       <c r="FO5" t="n">
-        <v>105.3</v>
+        <v>105.4</v>
       </c>
       <c r="FP5" t="n">
         <v>112.3</v>
       </c>
       <c r="FQ5" t="n">
-        <v>116.6</v>
+        <v>116.7</v>
       </c>
       <c r="FR5" t="n">
-        <v>110.2</v>
+        <v>110.4</v>
       </c>
       <c r="FS5" t="n">
-        <v>105.7</v>
+        <v>105.1</v>
       </c>
       <c r="FT5" t="n">
-        <v>113.7</v>
+        <v>113.5</v>
       </c>
       <c r="FU5" t="n">
         <v>111.2</v>
       </c>
       <c r="FV5" t="n">
-        <v>97.5</v>
+        <v>97.40000000000001</v>
       </c>
       <c r="FW5" t="n">
-        <v>101.8</v>
+        <v>101.9</v>
       </c>
       <c r="FX5" t="n">
-        <v>106.9</v>
+        <v>107</v>
       </c>
       <c r="FY5" t="n">
-        <v>98.3</v>
+        <v>98.5</v>
       </c>
       <c r="FZ5" t="n">
-        <v>104.1</v>
+        <v>104.2</v>
       </c>
       <c r="GA5" t="n">
-        <v>100.8</v>
+        <v>101</v>
       </c>
       <c r="GB5" t="n">
         <v>116.1</v>
       </c>
       <c r="GC5" t="n">
-        <v>107.6</v>
+        <v>107.9</v>
       </c>
       <c r="GD5" t="n">
-        <v>104.5</v>
+        <v>104.8</v>
       </c>
       <c r="GE5" t="n">
+        <v>105.4</v>
+      </c>
+      <c r="GF5" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="GG5" t="n">
         <v>106.2</v>
       </c>
-      <c r="GF5" t="n">
-        <v>104.9</v>
-      </c>
-      <c r="GG5" t="n">
-        <v>106.3</v>
-      </c>
       <c r="GH5" t="n">
-        <v>109.3</v>
+        <v>109.2</v>
       </c>
       <c r="GI5" t="n">
         <v>100.6</v>
       </c>
       <c r="GJ5" t="n">
-        <v>111.1</v>
+        <v>111.3</v>
       </c>
       <c r="GK5" t="n">
-        <v>110.2</v>
+        <v>110.4</v>
       </c>
       <c r="GL5" t="n">
-        <v>112.2</v>
+        <v>112.3</v>
       </c>
       <c r="GM5" t="n">
-        <v>108.7</v>
+        <v>108.8</v>
       </c>
       <c r="GN5" t="n">
         <v>109.5</v>
       </c>
       <c r="GO5" t="n">
-        <v>114.2</v>
+        <v>114.5</v>
       </c>
       <c r="GP5" t="n">
-        <v>108.6</v>
+        <v>109</v>
       </c>
       <c r="GQ5" t="n">
-        <v>110</v>
+        <v>109.2</v>
       </c>
       <c r="GR5" t="n">
-        <v>111.7</v>
+        <v>111.4</v>
       </c>
       <c r="GS5" t="n">
-        <v>114.6</v>
+        <v>114.5</v>
       </c>
       <c r="GT5" t="n">
         <v>106</v>
       </c>
       <c r="GU5" t="n">
-        <v>114.6</v>
+        <v>114.7</v>
       </c>
       <c r="GV5" t="n">
-        <v>118.4</v>
+        <v>118.5</v>
       </c>
       <c r="GW5" t="n">
-        <v>110.5</v>
+        <v>110.6</v>
       </c>
       <c r="GX5" t="n">
-        <v>113.6</v>
+        <v>113.8</v>
       </c>
       <c r="GY5" t="n">
-        <v>117.3</v>
+        <v>117.5</v>
       </c>
       <c r="GZ5" t="n">
         <v>85.3</v>
       </c>
       <c r="HA5" t="inlineStr"/>
       <c r="HB5" t="n">
-        <v>28.5</v>
+        <v>28.9</v>
       </c>
       <c r="HC5" t="n">
-        <v>50.8</v>
+        <v>49.8</v>
       </c>
       <c r="HD5" t="n">
-        <v>71.09999999999999</v>
+        <v>70.7</v>
       </c>
       <c r="HE5" t="n">
         <v>88</v>
       </c>
       <c r="HF5" t="n">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="HG5" t="n">
+        <v>97.2</v>
+      </c>
+      <c r="HH5" t="n">
+        <v>78.5</v>
+      </c>
+      <c r="HI5" t="n">
         <v>97.09999999999999</v>
       </c>
-      <c r="HH5" t="n">
-        <v>78.3</v>
-      </c>
-      <c r="HI5" t="n">
-        <v>97</v>
-      </c>
       <c r="HJ5" t="n">
-        <v>92.2</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="HK5" t="n">
-        <v>102.3</v>
+        <v>102.5</v>
       </c>
       <c r="HL5" t="n">
         <v>104.4</v>
       </c>
       <c r="HM5" t="n">
-        <v>91.2</v>
+        <v>91.7</v>
       </c>
       <c r="HN5" t="n">
-        <v>96.09999999999999</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="HO5" t="n">
-        <v>110</v>
+        <v>108.7</v>
       </c>
       <c r="HP5" t="n">
-        <v>116.2</v>
+        <v>115.8</v>
       </c>
       <c r="HQ5" t="n">
-        <v>113.9</v>
+        <v>113.8</v>
       </c>
       <c r="HR5" t="n">
-        <v>112.2</v>
+        <v>112.1</v>
       </c>
       <c r="HS5" t="n">
         <v>109.7</v>
       </c>
       <c r="HT5" t="n">
-        <v>110.1</v>
+        <v>110.4</v>
       </c>
       <c r="HU5" t="n">
-        <v>113.2</v>
+        <v>113.4</v>
       </c>
       <c r="HV5" t="n">
-        <v>103.2</v>
+        <v>103.5</v>
       </c>
       <c r="HW5" t="n">
-        <v>101.2</v>
+        <v>101.5</v>
       </c>
       <c r="HX5" t="n">
-        <v>113.8</v>
+        <v>113.9</v>
       </c>
       <c r="HY5" t="n">
-        <v>104.5</v>
+        <v>105.1</v>
       </c>
       <c r="HZ5" t="n">
-        <v>109.8</v>
+        <v>110.3</v>
+      </c>
+      <c r="IA5" t="n">
+        <v>117.4</v>
       </c>
     </row>
     <row r="6">
@@ -4382,22 +4399,22 @@
       <c r="Z6" t="inlineStr"/>
       <c r="AA6" t="inlineStr"/>
       <c r="AB6" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="AD6" t="n">
         <v>-0.4</v>
       </c>
       <c r="AE6" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AF6" t="n">
         <v>5.9</v>
       </c>
       <c r="AG6" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AH6" t="n">
         <v>1</v>
@@ -4418,7 +4435,7 @@
         <v>5.2</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AO6" t="n">
         <v>16.1</v>
@@ -4427,13 +4444,13 @@
         <v>19.7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AR6" t="n">
         <v>15.1</v>
       </c>
       <c r="AS6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AT6" t="n">
         <v>12.7</v>
@@ -4454,7 +4471,7 @@
         <v>16.1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="BA6" t="n">
         <v>13.1</v>
@@ -4463,7 +4480,7 @@
         <v>10.1</v>
       </c>
       <c r="BC6" t="n">
-        <v>12.8</v>
+        <v>12.7</v>
       </c>
       <c r="BD6" t="n">
         <v>8.4</v>
@@ -4487,7 +4504,7 @@
         <v>-0.9</v>
       </c>
       <c r="BK6" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
@@ -4499,7 +4516,7 @@
         <v>-1.5</v>
       </c>
       <c r="BO6" t="n">
-        <v>-10.4</v>
+        <v>-10.5</v>
       </c>
       <c r="BP6" t="n">
         <v>-8.800000000000001</v>
@@ -4523,7 +4540,7 @@
         <v>-16.5</v>
       </c>
       <c r="BW6" t="n">
-        <v>-18.5</v>
+        <v>-18.4</v>
       </c>
       <c r="BX6" t="n">
         <v>-25.9</v>
@@ -4535,13 +4552,13 @@
         <v>-20.7</v>
       </c>
       <c r="CA6" t="n">
-        <v>-17.7</v>
+        <v>-17.8</v>
       </c>
       <c r="CB6" t="n">
         <v>-17.2</v>
       </c>
       <c r="CC6" t="n">
-        <v>-7.1</v>
+        <v>-7.2</v>
       </c>
       <c r="CD6" t="n">
         <v>-7.6</v>
@@ -4571,13 +4588,13 @@
         <v>11.8</v>
       </c>
       <c r="CM6" t="n">
-        <v>-10</v>
+        <v>-10.1</v>
       </c>
       <c r="CN6" t="n">
         <v>-6.9</v>
       </c>
       <c r="CO6" t="n">
-        <v>-4.1</v>
+        <v>-4.2</v>
       </c>
       <c r="CP6" t="n">
         <v>1.4</v>
@@ -4607,7 +4624,7 @@
         <v>7.8</v>
       </c>
       <c r="CY6" t="n">
-        <v>10.6</v>
+        <v>10.5</v>
       </c>
       <c r="CZ6" t="n">
         <v>8.199999999999999</v>
@@ -4625,10 +4642,10 @@
         <v>-2.8</v>
       </c>
       <c r="DE6" t="n">
-        <v>-14</v>
+        <v>-13.9</v>
       </c>
       <c r="DF6" t="n">
-        <v>-9.4</v>
+        <v>-9.300000000000001</v>
       </c>
       <c r="DG6" t="n">
         <v>-10.9</v>
@@ -4679,7 +4696,7 @@
         <v>-22.7</v>
       </c>
       <c r="DW6" t="n">
-        <v>-27</v>
+        <v>-27.1</v>
       </c>
       <c r="DX6" t="n">
         <v>-19.9</v>
@@ -4715,7 +4732,7 @@
         <v>5.1</v>
       </c>
       <c r="EI6" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="EJ6" t="n">
         <v>7.9</v>
@@ -4724,7 +4741,7 @@
         <v>1.2</v>
       </c>
       <c r="EL6" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="EM6" t="n">
         <v>-11.6</v>
@@ -4745,16 +4762,16 @@
         <v>10.4</v>
       </c>
       <c r="ES6" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="ET6" t="n">
         <v>7.6</v>
       </c>
       <c r="EU6" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="EV6" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="EW6" t="n">
         <v>13.1</v>
@@ -4778,16 +4795,16 @@
         <v>12.4</v>
       </c>
       <c r="FD6" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="FE6" t="n">
-        <v>23.3</v>
+        <v>23.4</v>
       </c>
       <c r="FF6" t="n">
         <v>18.9</v>
       </c>
       <c r="FG6" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="FH6" t="n">
         <v>9.699999999999999</v>
@@ -4811,31 +4828,31 @@
         <v>20.1</v>
       </c>
       <c r="FO6" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="FP6" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="FQ6" t="n">
         <v>13.7</v>
       </c>
       <c r="FR6" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="FS6" t="n">
-        <v>10.7</v>
+        <v>10.6</v>
       </c>
       <c r="FT6" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="FU6" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="FV6" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="FW6" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="FX6" t="n">
         <v>10.6</v>
@@ -4853,22 +4870,22 @@
         <v>14.7</v>
       </c>
       <c r="GC6" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="GD6" t="n">
         <v>7.4</v>
       </c>
       <c r="GE6" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="GF6" t="n">
         <v>0.5</v>
       </c>
       <c r="GG6" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="GH6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="GI6" t="n">
         <v>1</v>
@@ -4880,7 +4897,7 @@
         <v>-0.1</v>
       </c>
       <c r="GL6" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GM6" t="n">
         <v>-0.6</v>
@@ -4898,7 +4915,7 @@
         <v>-6.7</v>
       </c>
       <c r="GR6" t="n">
-        <v>-3.2</v>
+        <v>-3.3</v>
       </c>
       <c r="GS6" t="n">
         <v>-7.9</v>
@@ -4926,13 +4943,13 @@
       </c>
       <c r="HA6" t="inlineStr"/>
       <c r="HB6" t="n">
-        <v>-57.9</v>
+        <v>-57.8</v>
       </c>
       <c r="HC6" t="n">
         <v>-57.5</v>
       </c>
       <c r="HD6" t="n">
-        <v>-43.3</v>
+        <v>-43.4</v>
       </c>
       <c r="HE6" t="n">
         <v>-34.8</v>
@@ -4950,28 +4967,28 @@
         <v>-16.8</v>
       </c>
       <c r="HJ6" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="HK6" t="n">
-        <v>-11.7</v>
+        <v>-11.6</v>
       </c>
       <c r="HL6" t="n">
         <v>-8.9</v>
       </c>
       <c r="HM6" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="HN6" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="HO6" t="n">
-        <v>16.1</v>
+        <v>16</v>
       </c>
       <c r="HP6" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="HQ6" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="HR6" t="n">
         <v>16.6</v>
@@ -4986,19 +5003,22 @@
         <v>14.2</v>
       </c>
       <c r="HV6" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="HW6" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="HX6" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="HY6" t="n">
         <v>6.5</v>
       </c>
       <c r="HZ6" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
+      </c>
+      <c r="IA6" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="7">
@@ -5040,22 +5060,22 @@
         <v>4.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AE7" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="AF7" t="n">
         <v>-5.3</v>
       </c>
       <c r="AG7" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AH7" t="n">
         <v>-1.1</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AJ7" t="n">
         <v>10.4</v>
@@ -5067,7 +5087,7 @@
         <v>17.1</v>
       </c>
       <c r="AM7" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="AN7" t="n">
         <v>18.5</v>
@@ -5079,7 +5099,7 @@
         <v>15.3</v>
       </c>
       <c r="AQ7" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="AR7" t="n">
         <v>10.2</v>
@@ -5091,10 +5111,10 @@
         <v>14.8</v>
       </c>
       <c r="AU7" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AV7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AW7" t="n">
         <v>9.9</v>
@@ -5112,10 +5132,10 @@
         <v>18.2</v>
       </c>
       <c r="BB7" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="BC7" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="BD7" t="n">
         <v>9.699999999999999</v>
@@ -5145,25 +5165,25 @@
         <v>-2.4</v>
       </c>
       <c r="BM7" t="n">
-        <v>-12.8</v>
+        <v>-12.7</v>
       </c>
       <c r="BN7" t="n">
-        <v>-23.1</v>
+        <v>-23</v>
       </c>
       <c r="BO7" t="n">
-        <v>-7.2</v>
+        <v>-7.4</v>
       </c>
       <c r="BP7" t="n">
         <v>-2.9</v>
       </c>
       <c r="BQ7" t="n">
-        <v>-9.5</v>
+        <v>-9.6</v>
       </c>
       <c r="BR7" t="n">
         <v>-4.5</v>
       </c>
       <c r="BS7" t="n">
-        <v>-22.8</v>
+        <v>-22.7</v>
       </c>
       <c r="BT7" t="n">
         <v>-17.3</v>
@@ -5175,22 +5195,22 @@
         <v>-11.4</v>
       </c>
       <c r="BW7" t="n">
-        <v>-14.5</v>
+        <v>-14.4</v>
       </c>
       <c r="BX7" t="n">
         <v>-27.7</v>
       </c>
       <c r="BY7" t="n">
-        <v>-18.5</v>
+        <v>-18.4</v>
       </c>
       <c r="BZ7" t="n">
-        <v>-4.3</v>
+        <v>-4.2</v>
       </c>
       <c r="CA7" t="n">
-        <v>-10.3</v>
+        <v>-10.5</v>
       </c>
       <c r="CB7" t="n">
-        <v>-14.5</v>
+        <v>-14.6</v>
       </c>
       <c r="CC7" t="n">
         <v>-11.9</v>
@@ -5205,7 +5225,7 @@
         <v>-8.4</v>
       </c>
       <c r="CG7" t="n">
-        <v>-10.2</v>
+        <v>-10.1</v>
       </c>
       <c r="CH7" t="n">
         <v>-2.1</v>
@@ -5214,16 +5234,16 @@
         <v>-6.5</v>
       </c>
       <c r="CJ7" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="CK7" t="n">
         <v>2.8</v>
       </c>
       <c r="CL7" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="CM7" t="n">
-        <v>-5.7</v>
+        <v>-5.9</v>
       </c>
       <c r="CN7" t="n">
         <v>3.6</v>
@@ -5232,7 +5252,7 @@
         <v>9.1</v>
       </c>
       <c r="CP7" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="CQ7" t="n">
         <v>-2.2</v>
@@ -5247,25 +5267,25 @@
         <v>11.9</v>
       </c>
       <c r="CU7" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="CV7" t="n">
         <v>0.4</v>
       </c>
       <c r="CW7" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="CX7" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="CY7" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="CZ7" t="n">
-        <v>9</v>
+        <v>8.9</v>
       </c>
       <c r="DA7" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="DB7" t="n">
         <v>-2.5</v>
@@ -5283,22 +5303,22 @@
         <v>-3.2</v>
       </c>
       <c r="DG7" t="n">
-        <v>-17.7</v>
+        <v>-17.6</v>
       </c>
       <c r="DH7" t="n">
-        <v>-15.1</v>
+        <v>-15</v>
       </c>
       <c r="DI7" t="n">
         <v>-16.6</v>
       </c>
       <c r="DJ7" t="n">
-        <v>-21.7</v>
+        <v>-21.6</v>
       </c>
       <c r="DK7" t="n">
-        <v>-24.3</v>
+        <v>-24.6</v>
       </c>
       <c r="DL7" t="n">
-        <v>-18.5</v>
+        <v>-18.6</v>
       </c>
       <c r="DM7" t="n">
         <v>-24.1</v>
@@ -5313,31 +5333,31 @@
         <v>-22.2</v>
       </c>
       <c r="DQ7" t="n">
-        <v>-26.1</v>
+        <v>-26</v>
       </c>
       <c r="DR7" t="n">
         <v>-24.8</v>
       </c>
       <c r="DS7" t="n">
-        <v>-19.3</v>
+        <v>-19.2</v>
       </c>
       <c r="DT7" t="n">
         <v>-16.6</v>
       </c>
       <c r="DU7" t="n">
-        <v>-18.2</v>
+        <v>-18.1</v>
       </c>
       <c r="DV7" t="n">
-        <v>-15.8</v>
+        <v>-15.7</v>
       </c>
       <c r="DW7" t="n">
-        <v>-17</v>
+        <v>-17.3</v>
       </c>
       <c r="DX7" t="n">
-        <v>-24.3</v>
+        <v>-24.4</v>
       </c>
       <c r="DY7" t="n">
-        <v>-18.7</v>
+        <v>-18.8</v>
       </c>
       <c r="DZ7" t="n">
         <v>-22.9</v>
@@ -5349,7 +5369,7 @@
         <v>-3.5</v>
       </c>
       <c r="EC7" t="n">
-        <v>-13.9</v>
+        <v>-13.8</v>
       </c>
       <c r="ED7" t="n">
         <v>-12.3</v>
@@ -5358,28 +5378,28 @@
         <v>-16.4</v>
       </c>
       <c r="EF7" t="n">
-        <v>-6.5</v>
+        <v>-6.4</v>
       </c>
       <c r="EG7" t="n">
-        <v>-8.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="EH7" t="n">
-        <v>-8.5</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="EI7" t="n">
-        <v>-6.2</v>
+        <v>-6.6</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-5.9</v>
+        <v>-6</v>
       </c>
       <c r="EK7" t="n">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="EL7" t="n">
         <v>-6.2</v>
       </c>
       <c r="EM7" t="n">
-        <v>-14.2</v>
+        <v>-14.3</v>
       </c>
       <c r="EN7" t="n">
         <v>-3.4</v>
@@ -5388,28 +5408,28 @@
         <v>3.8</v>
       </c>
       <c r="EP7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="EQ7" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="ER7" t="n">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="ES7" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="ET7" t="n">
-        <v>15.5</v>
+        <v>15.7</v>
       </c>
       <c r="EU7" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="EV7" t="n">
-        <v>9.1</v>
+        <v>8.9</v>
       </c>
       <c r="EW7" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="EX7" t="n">
         <v>2</v>
@@ -5424,25 +5444,25 @@
         <v>9.6</v>
       </c>
       <c r="FB7" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="FC7" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="FD7" t="n">
-        <v>18.7</v>
+        <v>18.8</v>
       </c>
       <c r="FE7" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="FF7" t="n">
-        <v>12.7</v>
+        <v>12.9</v>
       </c>
       <c r="FG7" t="n">
-        <v>11.3</v>
+        <v>10.8</v>
       </c>
       <c r="FH7" t="n">
-        <v>10.2</v>
+        <v>10</v>
       </c>
       <c r="FI7" t="n">
         <v>8</v>
@@ -5451,40 +5471,40 @@
         <v>-5</v>
       </c>
       <c r="FK7" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="FL7" t="n">
         <v>13.6</v>
       </c>
       <c r="FM7" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="FN7" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="FO7" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="FP7" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="FQ7" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="FR7" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="FS7" t="n">
-        <v>9.199999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="FT7" t="n">
-        <v>13.1</v>
+        <v>12.9</v>
       </c>
       <c r="FU7" t="n">
         <v>7.2</v>
       </c>
       <c r="FV7" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="FW7" t="n">
         <v>11.4</v>
@@ -5493,37 +5513,37 @@
         <v>14.4</v>
       </c>
       <c r="FY7" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="FZ7" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="GA7" t="n">
-        <v>11.2</v>
+        <v>11.4</v>
       </c>
       <c r="GB7" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="GC7" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="GD7" t="n">
-        <v>-5.6</v>
+        <v>-5.3</v>
       </c>
       <c r="GE7" t="n">
-        <v>-1.5</v>
+        <v>-2.2</v>
       </c>
       <c r="GF7" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="GG7" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="GH7" t="n">
-        <v>8.4</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="GI7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="GJ7" t="n">
         <v>-7.4</v>
@@ -5532,125 +5552,128 @@
         <v>6.6</v>
       </c>
       <c r="GL7" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="GM7" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="GN7" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="GO7" t="n">
-        <v>12.7</v>
+        <v>13</v>
       </c>
       <c r="GP7" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="GQ7" t="n">
-        <v>6.9</v>
+        <v>6.1</v>
       </c>
       <c r="GR7" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="GS7" t="n">
-        <v>-7.7</v>
+        <v>-7.8</v>
       </c>
       <c r="GT7" t="n">
-        <v>-15.2</v>
+        <v>-15.3</v>
       </c>
       <c r="GU7" t="n">
-        <v>-7.7</v>
+        <v>-7.8</v>
       </c>
       <c r="GV7" t="n">
         <v>-5.5</v>
       </c>
       <c r="GW7" t="n">
-        <v>-12.6</v>
+        <v>-12.5</v>
       </c>
       <c r="GX7" t="n">
-        <v>-5.3</v>
+        <v>-5.1</v>
       </c>
       <c r="GY7" t="n">
-        <v>-1.3</v>
+        <v>-1.1</v>
       </c>
       <c r="GZ7" t="n">
-        <v>-9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="HA7" t="inlineStr"/>
       <c r="HB7" t="n">
-        <v>-72.7</v>
+        <v>-72.3</v>
       </c>
       <c r="HC7" t="n">
-        <v>-73.7</v>
+        <v>-74.59999999999999</v>
       </c>
       <c r="HD7" t="n">
-        <v>-60.4</v>
+        <v>-60.7</v>
       </c>
       <c r="HE7" t="n">
-        <v>-45.1</v>
+        <v>-45.2</v>
       </c>
       <c r="HF7" t="n">
-        <v>-12.2</v>
+        <v>-12.3</v>
       </c>
       <c r="HG7" t="n">
-        <v>-12.2</v>
+        <v>-12.3</v>
       </c>
       <c r="HH7" t="n">
         <v>-22.6</v>
       </c>
       <c r="HI7" t="n">
-        <v>-37.3</v>
+        <v>-37.2</v>
       </c>
       <c r="HJ7" t="n">
-        <v>-34.9</v>
+        <v>-34.7</v>
       </c>
       <c r="HK7" t="n">
-        <v>-18</v>
+        <v>-17.8</v>
       </c>
       <c r="HL7" t="n">
-        <v>-12.5</v>
+        <v>-12.2</v>
       </c>
       <c r="HM7" t="n">
-        <v>-11.3</v>
+        <v>-10.8</v>
       </c>
       <c r="HN7" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="HO7" t="n">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="HP7" t="n">
-        <v>12.9</v>
+        <v>12.6</v>
       </c>
       <c r="HQ7" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="HR7" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="HS7" t="n">
-        <v>17.1</v>
+        <v>17</v>
       </c>
       <c r="HT7" t="n">
         <v>17</v>
       </c>
       <c r="HU7" t="n">
-        <v>27.9</v>
+        <v>28</v>
       </c>
       <c r="HV7" t="n">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="HW7" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="HX7" t="n">
-        <v>1.1</v>
+        <v>1.5</v>
       </c>
       <c r="HY7" t="n">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="HZ7" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
+      </c>
+      <c r="IA7" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="8">
@@ -6304,6 +6327,9 @@
       <c r="HZ8" t="n">
         <v>10.5</v>
       </c>
+      <c r="IA8" t="n">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -6338,142 +6364,142 @@
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="n">
-        <v>-18.8</v>
+        <v>-18.6</v>
       </c>
       <c r="AC9" t="n">
-        <v>-5.4</v>
+        <v>-5.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>-5.1</v>
+        <v>-5.3</v>
       </c>
       <c r="AE9" t="n">
         <v>-17.2</v>
       </c>
       <c r="AF9" t="n">
-        <v>-7.4</v>
+        <v>-7.1</v>
       </c>
       <c r="AG9" t="n">
-        <v>-18.1</v>
+        <v>-17.9</v>
       </c>
       <c r="AH9" t="n">
-        <v>-19</v>
+        <v>-18.8</v>
       </c>
       <c r="AI9" t="n">
         <v>1.3</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="AK9" t="n">
         <v>-5.8</v>
       </c>
       <c r="AL9" t="n">
-        <v>-3.3</v>
+        <v>-3.4</v>
       </c>
       <c r="AM9" t="n">
-        <v>-6.9</v>
+        <v>-7</v>
       </c>
       <c r="AN9" t="n">
-        <v>-3.9</v>
+        <v>-3.7</v>
       </c>
       <c r="AO9" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="AP9" t="n">
-        <v>-5.2</v>
+        <v>-5.4</v>
       </c>
       <c r="AQ9" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="AR9" t="n">
-        <v>-14.8</v>
+        <v>-14.5</v>
       </c>
       <c r="AS9" t="n">
-        <v>-2.3</v>
+        <v>-2.1</v>
       </c>
       <c r="AT9" t="n">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="AU9" t="n">
-        <v>-7.1</v>
+        <v>-7</v>
       </c>
       <c r="AV9" t="n">
-        <v>-4.2</v>
+        <v>-4.3</v>
       </c>
       <c r="AW9" t="n">
         <v>3.2</v>
       </c>
       <c r="AX9" t="n">
-        <v>-4.4</v>
+        <v>-4.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AZ9" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="BB9" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="BC9" t="n">
+        <v>-3.5</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>-18.5</v>
+      </c>
+      <c r="BE9" t="n">
         <v>-3.4</v>
       </c>
-      <c r="BD9" t="n">
-        <v>-18.7</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>-3.5</v>
-      </c>
       <c r="BF9" t="n">
-        <v>-4.6</v>
+        <v>-4.5</v>
       </c>
       <c r="BG9" t="n">
-        <v>-16</v>
+        <v>-15.9</v>
       </c>
       <c r="BH9" t="n">
-        <v>-13.8</v>
+        <v>-14</v>
       </c>
       <c r="BI9" t="n">
         <v>-11.6</v>
       </c>
       <c r="BJ9" t="n">
-        <v>-6.3</v>
+        <v>-6.4</v>
       </c>
       <c r="BK9" t="n">
         <v>-7.4</v>
       </c>
       <c r="BL9" t="n">
-        <v>-13</v>
+        <v>-12.8</v>
       </c>
       <c r="BM9" t="n">
-        <v>-10.3</v>
+        <v>-10.5</v>
       </c>
       <c r="BN9" t="n">
+        <v>-15.9</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>-20.9</v>
+      </c>
+      <c r="BP9" t="n">
         <v>-15.8</v>
       </c>
-      <c r="BO9" t="n">
-        <v>-20.7</v>
-      </c>
-      <c r="BP9" t="n">
-        <v>-16</v>
-      </c>
       <c r="BQ9" t="n">
-        <v>-20.7</v>
+        <v>-20.6</v>
       </c>
       <c r="BR9" t="n">
-        <v>-20</v>
+        <v>-19.9</v>
       </c>
       <c r="BS9" t="n">
-        <v>-16.3</v>
+        <v>-16.2</v>
       </c>
       <c r="BT9" t="n">
-        <v>-18</v>
+        <v>-18.2</v>
       </c>
       <c r="BU9" t="n">
-        <v>-31</v>
+        <v>-30.9</v>
       </c>
       <c r="BV9" t="n">
         <v>-18.5</v>
@@ -6482,19 +6508,19 @@
         <v>-20.6</v>
       </c>
       <c r="BX9" t="n">
-        <v>-40.1</v>
+        <v>-39.9</v>
       </c>
       <c r="BY9" t="n">
-        <v>-43.1</v>
+        <v>-43.2</v>
       </c>
       <c r="BZ9" t="n">
         <v>-32.9</v>
       </c>
       <c r="CA9" t="n">
-        <v>-41.5</v>
+        <v>-41.7</v>
       </c>
       <c r="CB9" t="n">
-        <v>-29.3</v>
+        <v>-29.2</v>
       </c>
       <c r="CC9" t="n">
         <v>-25.2</v>
@@ -6503,10 +6529,10 @@
         <v>-25.5</v>
       </c>
       <c r="CE9" t="n">
-        <v>-32</v>
+        <v>-31.9</v>
       </c>
       <c r="CF9" t="n">
-        <v>-15.5</v>
+        <v>-15.6</v>
       </c>
       <c r="CG9" t="n">
         <v>-19.3</v>
@@ -6518,22 +6544,22 @@
         <v>-11.4</v>
       </c>
       <c r="CJ9" t="n">
-        <v>-18.6</v>
+        <v>-18.4</v>
       </c>
       <c r="CK9" t="n">
         <v>-10.9</v>
       </c>
       <c r="CL9" t="n">
-        <v>-5.8</v>
+        <v>-5.9</v>
       </c>
       <c r="CM9" t="n">
-        <v>-11.4</v>
+        <v>-11.6</v>
       </c>
       <c r="CN9" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="CO9" t="n">
-        <v>-8.4</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="CP9" t="n">
         <v>0.5</v>
@@ -6542,19 +6568,19 @@
         <v>-8.300000000000001</v>
       </c>
       <c r="CR9" t="n">
-        <v>-7.9</v>
+        <v>-8</v>
       </c>
       <c r="CS9" t="n">
-        <v>-19.6</v>
+        <v>-19.5</v>
       </c>
       <c r="CT9" t="n">
         <v>-8.9</v>
       </c>
       <c r="CU9" t="n">
-        <v>-29.5</v>
+        <v>-29.4</v>
       </c>
       <c r="CV9" t="n">
-        <v>-25</v>
+        <v>-24.9</v>
       </c>
       <c r="CW9" t="n">
         <v>-12.1</v>
@@ -6563,7 +6589,7 @@
         <v>-13.3</v>
       </c>
       <c r="CY9" t="n">
-        <v>-2.8</v>
+        <v>-3.2</v>
       </c>
       <c r="CZ9" t="n">
         <v>-23.6</v>
@@ -6584,34 +6610,34 @@
         <v>-13.2</v>
       </c>
       <c r="DF9" t="n">
-        <v>-39.5</v>
+        <v>-39.4</v>
       </c>
       <c r="DG9" t="n">
-        <v>-34</v>
+        <v>-33.9</v>
       </c>
       <c r="DH9" t="n">
-        <v>-26.2</v>
+        <v>-26</v>
       </c>
       <c r="DI9" t="n">
-        <v>-23.3</v>
+        <v>-23.2</v>
       </c>
       <c r="DJ9" t="n">
         <v>-30.8</v>
       </c>
       <c r="DK9" t="n">
-        <v>-37.1</v>
+        <v>-37.6</v>
       </c>
       <c r="DL9" t="n">
         <v>-36.6</v>
       </c>
       <c r="DM9" t="n">
-        <v>-43.3</v>
+        <v>-43.2</v>
       </c>
       <c r="DN9" t="n">
         <v>-40.9</v>
       </c>
       <c r="DO9" t="n">
-        <v>-28.1</v>
+        <v>-28.2</v>
       </c>
       <c r="DP9" t="n">
         <v>-35</v>
@@ -6623,22 +6649,22 @@
         <v>-24.2</v>
       </c>
       <c r="DS9" t="n">
-        <v>-26.4</v>
+        <v>-26.3</v>
       </c>
       <c r="DT9" t="n">
-        <v>-31.8</v>
+        <v>-31.6</v>
       </c>
       <c r="DU9" t="n">
-        <v>-44.7</v>
+        <v>-44.6</v>
       </c>
       <c r="DV9" t="n">
-        <v>-30.2</v>
+        <v>-30</v>
       </c>
       <c r="DW9" t="n">
-        <v>-27.7</v>
+        <v>-28.1</v>
       </c>
       <c r="DX9" t="n">
-        <v>-29.7</v>
+        <v>-29.8</v>
       </c>
       <c r="DY9" t="n">
         <v>-38.7</v>
@@ -6647,7 +6673,7 @@
         <v>-27.9</v>
       </c>
       <c r="EA9" t="n">
-        <v>-28.4</v>
+        <v>-28.5</v>
       </c>
       <c r="EB9" t="n">
         <v>-12</v>
@@ -6659,22 +6685,22 @@
         <v>-14.8</v>
       </c>
       <c r="EE9" t="n">
-        <v>-20.6</v>
+        <v>-20.5</v>
       </c>
       <c r="EF9" t="n">
-        <v>-12.4</v>
+        <v>-12.3</v>
       </c>
       <c r="EG9" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="EH9" t="n">
-        <v>-21.9</v>
+        <v>-21.6</v>
       </c>
       <c r="EI9" t="n">
-        <v>-8.5</v>
+        <v>-9</v>
       </c>
       <c r="EJ9" t="n">
-        <v>-9.9</v>
+        <v>-10.1</v>
       </c>
       <c r="EK9" t="n">
         <v>-10.1</v>
@@ -6686,34 +6712,34 @@
         <v>-11.5</v>
       </c>
       <c r="EN9" t="n">
-        <v>-14.2</v>
+        <v>-14.1</v>
       </c>
       <c r="EO9" t="n">
         <v>-6</v>
       </c>
       <c r="EP9" t="n">
-        <v>-8.4</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="EQ9" t="n">
-        <v>-4.4</v>
+        <v>-4.3</v>
       </c>
       <c r="ER9" t="n">
-        <v>-7</v>
+        <v>-6.9</v>
       </c>
       <c r="ES9" t="n">
-        <v>-23.9</v>
+        <v>-23.6</v>
       </c>
       <c r="ET9" t="n">
-        <v>-9.4</v>
+        <v>-9.199999999999999</v>
       </c>
       <c r="EU9" t="n">
-        <v>-5.3</v>
+        <v>-5.9</v>
       </c>
       <c r="EV9" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="EW9" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="EX9" t="n">
         <v>-8.300000000000001</v>
@@ -6722,7 +6748,7 @@
         <v>4.5</v>
       </c>
       <c r="EZ9" t="n">
-        <v>-12.6</v>
+        <v>-12.4</v>
       </c>
       <c r="FA9" t="n">
         <v>-1.7</v>
@@ -6734,22 +6760,22 @@
         <v>-1.7</v>
       </c>
       <c r="FD9" t="n">
-        <v>-26.4</v>
+        <v>-26.3</v>
       </c>
       <c r="FE9" t="n">
-        <v>-4</v>
+        <v>-3.6</v>
       </c>
       <c r="FF9" t="n">
-        <v>-5.1</v>
+        <v>-4.8</v>
       </c>
       <c r="FG9" t="n">
-        <v>-0.3</v>
+        <v>-1</v>
       </c>
       <c r="FH9" t="n">
-        <v>-12.4</v>
+        <v>-12.7</v>
       </c>
       <c r="FI9" t="n">
-        <v>-13.2</v>
+        <v>-13.3</v>
       </c>
       <c r="FJ9" t="n">
         <v>-4.1</v>
@@ -6758,70 +6784,70 @@
         <v>-8.4</v>
       </c>
       <c r="FL9" t="n">
-        <v>-4.8</v>
+        <v>-4.7</v>
       </c>
       <c r="FM9" t="n">
-        <v>-6.1</v>
+        <v>-6</v>
       </c>
       <c r="FN9" t="n">
         <v>3</v>
       </c>
       <c r="FO9" t="n">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="FP9" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="FQ9" t="n">
-        <v>-0.6</v>
+        <v>-0.3</v>
       </c>
       <c r="FR9" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="FS9" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="FT9" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="FU9" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="FV9" t="n">
-        <v>-10.5</v>
+        <v>-10.6</v>
       </c>
       <c r="FW9" t="n">
         <v>-5</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="FY9" t="n">
         <v>-11.4</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="GA9" t="n">
-        <v>-3.2</v>
+        <v>-3.1</v>
       </c>
       <c r="GB9" t="n">
         <v>7.4</v>
       </c>
       <c r="GC9" t="n">
-        <v>-0.9</v>
+        <v>-0.5</v>
       </c>
       <c r="GD9" t="n">
-        <v>-3.8</v>
+        <v>-3.4</v>
       </c>
       <c r="GE9" t="n">
-        <v>-0.5</v>
+        <v>-1.2</v>
       </c>
       <c r="GF9" t="n">
-        <v>-0.1</v>
+        <v>-0.4</v>
       </c>
       <c r="GG9" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="GH9" t="n">
         <v>1.1</v>
@@ -6830,131 +6856,134 @@
         <v>-2.8</v>
       </c>
       <c r="GJ9" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="GK9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="GL9" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="GM9" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="GN9" t="n">
         <v>5.5</v>
       </c>
       <c r="GO9" t="n">
-        <v>7.6</v>
+        <v>8.1</v>
       </c>
       <c r="GP9" t="n">
-        <v>0.8</v>
+        <v>1.1</v>
       </c>
       <c r="GQ9" t="n">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="GR9" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="GS9" t="n">
-        <v>9.699999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="GT9" t="n">
-        <v>-4.9</v>
+        <v>-5</v>
       </c>
       <c r="GU9" t="n">
         <v>12</v>
       </c>
       <c r="GV9" t="n">
-        <v>13.1</v>
+        <v>13.3</v>
       </c>
       <c r="GW9" t="n">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="GX9" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="GY9" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="GZ9" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="HA9" t="inlineStr"/>
       <c r="HB9" t="n">
-        <v>-83.2</v>
+        <v>-82.8</v>
       </c>
       <c r="HC9" t="n">
-        <v>-77.09999999999999</v>
+        <v>-77.90000000000001</v>
       </c>
       <c r="HD9" t="n">
-        <v>-42.5</v>
+        <v>-42.9</v>
       </c>
       <c r="HE9" t="n">
-        <v>-19.7</v>
+        <v>-19.9</v>
       </c>
       <c r="HF9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="HG9" t="n">
         <v>-11.7</v>
       </c>
       <c r="HH9" t="n">
-        <v>-31.7</v>
+        <v>-31.5</v>
       </c>
       <c r="HI9" t="n">
-        <v>-12.5</v>
+        <v>-12.4</v>
       </c>
       <c r="HJ9" t="n">
-        <v>-21.7</v>
+        <v>-21.4</v>
       </c>
       <c r="HK9" t="n">
-        <v>-2</v>
+        <v>-1.8</v>
       </c>
       <c r="HL9" t="n">
-        <v>-1.1</v>
+        <v>-1.2</v>
       </c>
       <c r="HM9" t="n">
-        <v>-15</v>
+        <v>-14.5</v>
       </c>
       <c r="HN9" t="n">
-        <v>-5.8</v>
+        <v>-5.4</v>
       </c>
       <c r="HO9" t="n">
-        <v>0.9</v>
+        <v>0.2</v>
       </c>
       <c r="HP9" t="n">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="HQ9" t="n">
-        <v>10.8</v>
+        <v>10.6</v>
       </c>
       <c r="HR9" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="HS9" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="HT9" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="HU9" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="HV9" t="n">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="HW9" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7.9</v>
       </c>
       <c r="HX9" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="HY9" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="HZ9" t="n">
-        <v>3</v>
+        <v>3.4</v>
+      </c>
+      <c r="IA9" t="n">
+        <v>12.7</v>
       </c>
     </row>
     <row r="10">
@@ -7660,6 +7689,9 @@
       <c r="HZ10" t="n">
         <v>14</v>
       </c>
+      <c r="IA10" t="n">
+        <v>18.4</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -7749,7 +7781,7 @@
         <v>-3.1</v>
       </c>
       <c r="AC11" t="n">
-        <v>-1.8</v>
+        <v>-1.7</v>
       </c>
       <c r="AD11" t="n">
         <v>-4.8</v>
@@ -7767,7 +7799,7 @@
         <v>-4</v>
       </c>
       <c r="AI11" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="AJ11" t="n">
         <v>10.1</v>
@@ -7779,7 +7811,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AM11" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AN11" t="n">
         <v>8.6</v>
@@ -7788,10 +7820,10 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AP11" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AR11" t="n">
         <v>0.6</v>
@@ -7818,16 +7850,16 @@
         <v>9.300000000000001</v>
       </c>
       <c r="AZ11" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="BA11" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="BB11" t="n">
         <v>13.8</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="BD11" t="n">
         <v>6.1</v>
@@ -7851,7 +7883,7 @@
         <v>1.5</v>
       </c>
       <c r="BK11" t="n">
-        <v>-2.2</v>
+        <v>-2.3</v>
       </c>
       <c r="BL11" t="n">
         <v>-2.2</v>
@@ -7863,7 +7895,7 @@
         <v>-21.4</v>
       </c>
       <c r="BO11" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="BP11" t="n">
         <v>-7.7</v>
@@ -7935,7 +7967,7 @@
         <v>-4.7</v>
       </c>
       <c r="CM11" t="n">
-        <v>-11.1</v>
+        <v>-11.2</v>
       </c>
       <c r="CN11" t="n">
         <v>0.4</v>
@@ -7965,16 +7997,16 @@
         <v>1.7</v>
       </c>
       <c r="CW11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="CX11" t="n">
         <v>6</v>
       </c>
       <c r="CY11" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="CZ11" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="DA11" t="n">
         <v>4.2</v>
@@ -8001,10 +8033,10 @@
         <v>-15.3</v>
       </c>
       <c r="DI11" t="n">
-        <v>-15.4</v>
+        <v>-15.3</v>
       </c>
       <c r="DJ11" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="DK11" t="n">
         <v>-26.2</v>
@@ -8043,7 +8075,7 @@
         <v>-20.6</v>
       </c>
       <c r="DW11" t="n">
-        <v>-18.7</v>
+        <v>-18.8</v>
       </c>
       <c r="DX11" t="n">
         <v>-14.2</v>
@@ -8115,7 +8147,7 @@
         <v>13.3</v>
       </c>
       <c r="EU11" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="EV11" t="n">
         <v>9.800000000000001</v>
@@ -8136,7 +8168,7 @@
         <v>-5.2</v>
       </c>
       <c r="FB11" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="FC11" t="n">
         <v>9.4</v>
@@ -8154,7 +8186,7 @@
         <v>10.1</v>
       </c>
       <c r="FH11" t="n">
-        <v>11.2</v>
+        <v>11.1</v>
       </c>
       <c r="FI11" t="n">
         <v>3.4</v>
@@ -8169,7 +8201,7 @@
         <v>15.3</v>
       </c>
       <c r="FM11" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="FN11" t="n">
         <v>2.6</v>
@@ -8187,7 +8219,7 @@
         <v>7.5</v>
       </c>
       <c r="FS11" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="FT11" t="n">
         <v>12.2</v>
@@ -8235,7 +8267,7 @@
         <v>5.5</v>
       </c>
       <c r="GI11" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="GJ11" t="n">
         <v>0.3</v>
@@ -8253,13 +8285,13 @@
         <v>5</v>
       </c>
       <c r="GO11" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="GP11" t="n">
         <v>-2.4</v>
       </c>
       <c r="GQ11" t="n">
-        <v>-2.4</v>
+        <v>-2.5</v>
       </c>
       <c r="GR11" t="n">
         <v>-2.9</v>
@@ -8356,13 +8388,16 @@
         <v>-2.9</v>
       </c>
       <c r="HX11" t="n">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="HY11" t="n">
-        <v>-4.8</v>
+        <v>-4.9</v>
       </c>
       <c r="HZ11" t="n">
-        <v>1</v>
+        <v>1.3</v>
+      </c>
+      <c r="IA11" t="n">
+        <v>2.2</v>
       </c>
     </row>
     <row r="12">
@@ -9068,6 +9103,9 @@
       <c r="HZ12" t="n">
         <v>9.800000000000001</v>
       </c>
+      <c r="IA12" t="n">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -9154,79 +9192,79 @@
         <v>-15.1</v>
       </c>
       <c r="AB13" t="n">
-        <v>-22</v>
+        <v>-21.8</v>
       </c>
       <c r="AC13" t="n">
         <v>-18.1</v>
       </c>
       <c r="AD13" t="n">
-        <v>-15.1</v>
+        <v>-15.2</v>
       </c>
       <c r="AE13" t="n">
-        <v>-24.7</v>
+        <v>-24.6</v>
       </c>
       <c r="AF13" t="n">
-        <v>-22.1</v>
+        <v>-21.9</v>
       </c>
       <c r="AG13" t="n">
         <v>-18</v>
       </c>
       <c r="AH13" t="n">
-        <v>-22.9</v>
+        <v>-22.7</v>
       </c>
       <c r="AI13" t="n">
-        <v>-4</v>
+        <v>-4.1</v>
       </c>
       <c r="AJ13" t="n">
         <v>-5.8</v>
       </c>
       <c r="AK13" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.4</v>
       </c>
       <c r="AL13" t="n">
+        <v>-8.5</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>-11.2</v>
+      </c>
+      <c r="AN13" t="n">
         <v>-8.4</v>
       </c>
-      <c r="AM13" t="n">
-        <v>-11</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>-8.5</v>
-      </c>
       <c r="AO13" t="n">
-        <v>-1.7</v>
+        <v>-1.8</v>
       </c>
       <c r="AP13" t="n">
-        <v>-6.2</v>
+        <v>-6.3</v>
       </c>
       <c r="AQ13" t="n">
         <v>-5.1</v>
       </c>
       <c r="AR13" t="n">
-        <v>-19.3</v>
+        <v>-19.1</v>
       </c>
       <c r="AS13" t="n">
         <v>-13.2</v>
       </c>
       <c r="AT13" t="n">
-        <v>-3.7</v>
+        <v>-3.5</v>
       </c>
       <c r="AU13" t="n">
-        <v>-6</v>
+        <v>-6.1</v>
       </c>
       <c r="AV13" t="n">
-        <v>-3.9</v>
+        <v>-4</v>
       </c>
       <c r="AW13" t="n">
-        <v>-1.5</v>
+        <v>-1.6</v>
       </c>
       <c r="AX13" t="n">
-        <v>-8.9</v>
+        <v>-9</v>
       </c>
       <c r="AY13" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="AZ13" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BA13" t="n">
         <v>-5.8</v>
@@ -9238,49 +9276,49 @@
         <v>-7.9</v>
       </c>
       <c r="BD13" t="n">
-        <v>-12.4</v>
+        <v>-12.2</v>
       </c>
       <c r="BE13" t="n">
         <v>-13.2</v>
       </c>
       <c r="BF13" t="n">
-        <v>-7.2</v>
+        <v>-7.1</v>
       </c>
       <c r="BG13" t="n">
         <v>-24.3</v>
       </c>
       <c r="BH13" t="n">
-        <v>-11.8</v>
+        <v>-11.9</v>
       </c>
       <c r="BI13" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="BJ13" t="n">
-        <v>-7.8</v>
+        <v>-7.9</v>
       </c>
       <c r="BK13" t="n">
-        <v>-16.9</v>
+        <v>-17</v>
       </c>
       <c r="BL13" t="n">
-        <v>-11.6</v>
+        <v>-11.5</v>
       </c>
       <c r="BM13" t="n">
-        <v>-17.1</v>
+        <v>-17</v>
       </c>
       <c r="BN13" t="n">
         <v>-17.9</v>
       </c>
       <c r="BO13" t="n">
-        <v>-18</v>
+        <v>-18.1</v>
       </c>
       <c r="BP13" t="n">
-        <v>-15.3</v>
+        <v>-15.2</v>
       </c>
       <c r="BQ13" t="n">
         <v>-20.1</v>
       </c>
       <c r="BR13" t="n">
-        <v>-24.3</v>
+        <v>-24.2</v>
       </c>
       <c r="BS13" t="n">
         <v>-24.9</v>
@@ -9295,22 +9333,22 @@
         <v>-25.5</v>
       </c>
       <c r="BW13" t="n">
-        <v>-21.1</v>
+        <v>-21.2</v>
       </c>
       <c r="BX13" t="n">
-        <v>-38.3</v>
+        <v>-38.1</v>
       </c>
       <c r="BY13" t="n">
-        <v>-47.3</v>
+        <v>-47.2</v>
       </c>
       <c r="BZ13" t="n">
         <v>-33.8</v>
       </c>
       <c r="CA13" t="n">
-        <v>-42</v>
+        <v>-42.1</v>
       </c>
       <c r="CB13" t="n">
-        <v>-36.1</v>
+        <v>-36</v>
       </c>
       <c r="CC13" t="n">
         <v>-25.1</v>
@@ -9322,34 +9360,34 @@
         <v>-29.4</v>
       </c>
       <c r="CF13" t="n">
-        <v>-18</v>
+        <v>-18.1</v>
       </c>
       <c r="CG13" t="n">
-        <v>-16.4</v>
+        <v>-16.5</v>
       </c>
       <c r="CH13" t="n">
-        <v>-18</v>
+        <v>-18.1</v>
       </c>
       <c r="CI13" t="n">
-        <v>-11.4</v>
+        <v>-11.5</v>
       </c>
       <c r="CJ13" t="n">
-        <v>-16.4</v>
+        <v>-16.3</v>
       </c>
       <c r="CK13" t="n">
-        <v>-16.1</v>
+        <v>-16</v>
       </c>
       <c r="CL13" t="n">
-        <v>-9.1</v>
+        <v>-9</v>
       </c>
       <c r="CM13" t="n">
-        <v>-10.9</v>
+        <v>-11.1</v>
       </c>
       <c r="CN13" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="CO13" t="n">
-        <v>-9.800000000000001</v>
+        <v>-9.9</v>
       </c>
       <c r="CP13" t="n">
         <v>-9.4</v>
@@ -9367,19 +9405,19 @@
         <v>-11.5</v>
       </c>
       <c r="CU13" t="n">
-        <v>-20.4</v>
+        <v>-20.3</v>
       </c>
       <c r="CV13" t="n">
-        <v>-18.4</v>
+        <v>-18.2</v>
       </c>
       <c r="CW13" t="n">
-        <v>-10.5</v>
+        <v>-10.4</v>
       </c>
       <c r="CX13" t="n">
-        <v>-13</v>
+        <v>-12.9</v>
       </c>
       <c r="CY13" t="n">
-        <v>-4.4</v>
+        <v>-4.7</v>
       </c>
       <c r="CZ13" t="n">
         <v>-22.6</v>
@@ -9403,22 +9441,22 @@
         <v>-40.2</v>
       </c>
       <c r="DG13" t="n">
-        <v>-32.4</v>
+        <v>-32.3</v>
       </c>
       <c r="DH13" t="n">
-        <v>-29.9</v>
+        <v>-29.7</v>
       </c>
       <c r="DI13" t="n">
-        <v>-30.5</v>
+        <v>-30.4</v>
       </c>
       <c r="DJ13" t="n">
-        <v>-35.7</v>
+        <v>-35.6</v>
       </c>
       <c r="DK13" t="n">
-        <v>-37.6</v>
+        <v>-38</v>
       </c>
       <c r="DL13" t="n">
-        <v>-45.9</v>
+        <v>-45.8</v>
       </c>
       <c r="DM13" t="n">
         <v>-45</v>
@@ -9439,19 +9477,19 @@
         <v>-23.3</v>
       </c>
       <c r="DS13" t="n">
-        <v>-23.9</v>
+        <v>-23.8</v>
       </c>
       <c r="DT13" t="n">
-        <v>-32</v>
+        <v>-31.8</v>
       </c>
       <c r="DU13" t="n">
-        <v>-42.3</v>
+        <v>-42.1</v>
       </c>
       <c r="DV13" t="n">
-        <v>-32.1</v>
+        <v>-31.9</v>
       </c>
       <c r="DW13" t="n">
-        <v>-35.3</v>
+        <v>-35.8</v>
       </c>
       <c r="DX13" t="n">
         <v>-43.5</v>
@@ -9466,31 +9504,31 @@
         <v>-14</v>
       </c>
       <c r="EB13" t="n">
-        <v>-20.8</v>
+        <v>-20.7</v>
       </c>
       <c r="EC13" t="n">
-        <v>-18.2</v>
+        <v>-18.1</v>
       </c>
       <c r="ED13" t="n">
         <v>-11.7</v>
       </c>
       <c r="EE13" t="n">
-        <v>-17.9</v>
+        <v>-17.7</v>
       </c>
       <c r="EF13" t="n">
-        <v>-22.1</v>
+        <v>-22</v>
       </c>
       <c r="EG13" t="n">
-        <v>-5.7</v>
+        <v>-5.5</v>
       </c>
       <c r="EH13" t="n">
-        <v>-24.8</v>
+        <v>-24.6</v>
       </c>
       <c r="EI13" t="n">
-        <v>-9.5</v>
+        <v>-10.1</v>
       </c>
       <c r="EJ13" t="n">
-        <v>-18.2</v>
+        <v>-18.4</v>
       </c>
       <c r="EK13" t="n">
         <v>-11.5</v>
@@ -9499,278 +9537,281 @@
         <v>-12.1</v>
       </c>
       <c r="EM13" t="n">
-        <v>-10.6</v>
+        <v>-10.7</v>
       </c>
       <c r="EN13" t="n">
-        <v>-11.2</v>
+        <v>-11.1</v>
       </c>
       <c r="EO13" t="n">
         <v>-11.6</v>
       </c>
       <c r="EP13" t="n">
-        <v>-16.4</v>
+        <v>-16.3</v>
       </c>
       <c r="EQ13" t="n">
-        <v>-28.6</v>
+        <v>-28.3</v>
       </c>
       <c r="ER13" t="n">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="ES13" t="n">
-        <v>-20.9</v>
+        <v>-20.7</v>
       </c>
       <c r="ET13" t="n">
-        <v>-5.3</v>
+        <v>-5.1</v>
       </c>
       <c r="EU13" t="n">
-        <v>-12.1</v>
+        <v>-12.8</v>
       </c>
       <c r="EV13" t="n">
-        <v>-4.2</v>
+        <v>-4.5</v>
       </c>
       <c r="EW13" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="EX13" t="n">
-        <v>-11.6</v>
+        <v>-11.7</v>
       </c>
       <c r="EY13" t="n">
         <v>-1.4</v>
       </c>
       <c r="EZ13" t="n">
-        <v>-19.7</v>
+        <v>-19.6</v>
       </c>
       <c r="FA13" t="n">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="FB13" t="n">
-        <v>-16.4</v>
+        <v>-16.3</v>
       </c>
       <c r="FC13" t="n">
-        <v>-14.9</v>
+        <v>-14.6</v>
       </c>
       <c r="FD13" t="n">
-        <v>-32.6</v>
+        <v>-32.4</v>
       </c>
       <c r="FE13" t="n">
-        <v>-9.800000000000001</v>
+        <v>-9.6</v>
       </c>
       <c r="FF13" t="n">
-        <v>-5.3</v>
+        <v>-5.1</v>
       </c>
       <c r="FG13" t="n">
-        <v>-0.2</v>
+        <v>-1</v>
       </c>
       <c r="FH13" t="n">
-        <v>-1.7</v>
+        <v>-2</v>
       </c>
       <c r="FI13" t="n">
-        <v>-7.6</v>
+        <v>-7.7</v>
       </c>
       <c r="FJ13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="FK13" t="n">
-        <v>-10</v>
+        <v>-9.9</v>
       </c>
       <c r="FL13" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="FM13" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8</v>
       </c>
       <c r="FN13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.6</v>
+        <v>0.9</v>
       </c>
       <c r="FP13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="FQ13" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="FS13" t="n">
+        <v>-3.3</v>
+      </c>
+      <c r="FT13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="FU13" t="n">
+        <v>-2.9</v>
+      </c>
+      <c r="FV13" t="n">
+        <v>-11.5</v>
+      </c>
+      <c r="FW13" t="n">
+        <v>-14.6</v>
+      </c>
+      <c r="FX13" t="n">
+        <v>-1.5</v>
+      </c>
+      <c r="FY13" t="n">
+        <v>-15.2</v>
+      </c>
+      <c r="FZ13" t="n">
+        <v>-2.2</v>
+      </c>
+      <c r="GA13" t="n">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="GB13" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="GC13" t="n">
+        <v>4</v>
+      </c>
+      <c r="GD13" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="GE13" t="n">
+        <v>0</v>
+      </c>
+      <c r="GF13" t="n">
+        <v>-4.6</v>
+      </c>
+      <c r="GG13" t="n">
+        <v>-3</v>
+      </c>
+      <c r="GH13" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="GI13" t="n">
+        <v>-9.4</v>
+      </c>
+      <c r="GJ13" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="GK13" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="GL13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="GM13" t="n">
         <v>-2.4</v>
       </c>
-      <c r="FT13" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="FU13" t="n">
-        <v>-2.8</v>
-      </c>
-      <c r="FV13" t="n">
-        <v>-11.4</v>
-      </c>
-      <c r="FW13" t="n">
-        <v>-14.8</v>
-      </c>
-      <c r="FX13" t="n">
-        <v>-1.6</v>
-      </c>
-      <c r="FY13" t="n">
-        <v>-15.5</v>
-      </c>
-      <c r="FZ13" t="n">
-        <v>-2.3</v>
-      </c>
-      <c r="GA13" t="n">
-        <v>-8.6</v>
-      </c>
-      <c r="GB13" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="GC13" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="GD13" t="n">
+      <c r="GN13" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="GO13" t="n">
+        <v>3</v>
+      </c>
+      <c r="GP13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="GQ13" t="n">
         <v>-0.7</v>
       </c>
-      <c r="GE13" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="GF13" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="GG13" t="n">
-        <v>-2.9</v>
-      </c>
-      <c r="GH13" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="GI13" t="n">
-        <v>-9.5</v>
-      </c>
-      <c r="GJ13" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="GK13" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="GL13" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="GM13" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="GN13" t="n">
-        <v>-2.6</v>
-      </c>
-      <c r="GO13" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="GP13" t="n">
-        <v>3</v>
-      </c>
-      <c r="GQ13" t="n">
-        <v>0.4</v>
-      </c>
       <c r="GR13" t="n">
-        <v>4.9</v>
+        <v>4.4</v>
       </c>
       <c r="GS13" t="n">
         <v>5.9</v>
       </c>
       <c r="GT13" t="n">
-        <v>-2.8</v>
+        <v>-3</v>
       </c>
       <c r="GU13" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="GV13" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="GW13" t="n">
-        <v>-0.9</v>
+        <v>-0.6</v>
       </c>
       <c r="GX13" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="GY13" t="n">
-        <v>12.9</v>
+        <v>13.2</v>
       </c>
       <c r="GZ13" t="n">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="HA13" t="inlineStr"/>
       <c r="HB13" t="n">
-        <v>-79.5</v>
+        <v>-78.90000000000001</v>
       </c>
       <c r="HC13" t="n">
-        <v>-79.2</v>
+        <v>-80.40000000000001</v>
       </c>
       <c r="HD13" t="n">
-        <v>-49.9</v>
+        <v>-50.5</v>
       </c>
       <c r="HE13" t="n">
         <v>-22.8</v>
       </c>
       <c r="HF13" t="n">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="HG13" t="n">
-        <v>-12.3</v>
+        <v>-12.2</v>
       </c>
       <c r="HH13" t="n">
-        <v>-27.2</v>
+        <v>-27</v>
       </c>
       <c r="HI13" t="n">
-        <v>-18.6</v>
+        <v>-18.4</v>
       </c>
       <c r="HJ13" t="n">
-        <v>-20.1</v>
+        <v>-19.8</v>
       </c>
       <c r="HK13" t="n">
-        <v>-10.3</v>
+        <v>-9.9</v>
       </c>
       <c r="HL13" t="n">
         <v>1</v>
       </c>
       <c r="HM13" t="n">
-        <v>-17.3</v>
+        <v>-16.8</v>
       </c>
       <c r="HN13" t="n">
-        <v>-22.1</v>
+        <v>-21.4</v>
       </c>
       <c r="HO13" t="n">
-        <v>-0.3</v>
+        <v>-1.8</v>
       </c>
       <c r="HP13" t="n">
-        <v>9.699999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="HQ13" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="HR13" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="HS13" t="n">
         <v>6.3</v>
       </c>
       <c r="HT13" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="HU13" t="n">
-        <v>12</v>
+        <v>12.2</v>
       </c>
       <c r="HV13" t="n">
-        <v>-7.3</v>
+        <v>-6.9</v>
       </c>
       <c r="HW13" t="n">
-        <v>-4.4</v>
+        <v>-3.9</v>
       </c>
       <c r="HX13" t="n">
         <v>13.1</v>
       </c>
       <c r="HY13" t="n">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="HZ13" t="n">
-        <v>7.2</v>
+        <v>7.9</v>
+      </c>
+      <c r="IA13" t="n">
+        <v>16.5</v>
       </c>
     </row>
     <row r="14">
@@ -9858,22 +9899,22 @@
         <v>12.5</v>
       </c>
       <c r="AB14" t="n">
-        <v>17.7</v>
+        <v>17.8</v>
       </c>
       <c r="AC14" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="AE14" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="AF14" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="AH14" t="n">
         <v>3.9</v>
@@ -9891,25 +9932,25 @@
         <v>19.1</v>
       </c>
       <c r="AM14" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="AN14" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="AP14" t="n">
-        <v>21.2</v>
+        <v>21.4</v>
       </c>
       <c r="AQ14" t="n">
-        <v>14</v>
+        <v>13.7</v>
       </c>
       <c r="AR14" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="AS14" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="AT14" t="n">
         <v>26.1</v>
@@ -9918,40 +9959,40 @@
         <v>22.8</v>
       </c>
       <c r="AV14" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="AW14" t="n">
         <v>17.9</v>
       </c>
       <c r="AX14" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AY14" t="n">
         <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="BA14" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="BB14" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="BC14" t="n">
-        <v>17.3</v>
+        <v>17.1</v>
       </c>
       <c r="BD14" t="n">
         <v>10.8</v>
       </c>
       <c r="BE14" t="n">
-        <v>11.5</v>
+        <v>11.4</v>
       </c>
       <c r="BF14" t="n">
         <v>16.6</v>
       </c>
       <c r="BG14" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="BH14" t="n">
         <v>16.2</v>
@@ -9963,25 +10004,25 @@
         <v>11.8</v>
       </c>
       <c r="BK14" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="BL14" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="BM14" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="BN14" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="BO14" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="BP14" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="BQ14" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="BR14" t="n">
         <v>-0.3</v>
@@ -9993,34 +10034,34 @@
         <v>-15.1</v>
       </c>
       <c r="BU14" t="n">
-        <v>-10.7</v>
+        <v>-10.6</v>
       </c>
       <c r="BV14" t="n">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
       <c r="BW14" t="n">
         <v>-14.6</v>
       </c>
       <c r="BX14" t="n">
-        <v>-23.7</v>
+        <v>-23.6</v>
       </c>
       <c r="BY14" t="n">
-        <v>-16.3</v>
+        <v>-16.1</v>
       </c>
       <c r="BZ14" t="n">
-        <v>-13.4</v>
+        <v>-13.3</v>
       </c>
       <c r="CA14" t="n">
-        <v>-10.5</v>
+        <v>-10.7</v>
       </c>
       <c r="CB14" t="n">
-        <v>-4.8</v>
+        <v>-4.9</v>
       </c>
       <c r="CC14" t="n">
         <v>0.8</v>
       </c>
       <c r="CD14" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="CE14" t="n">
         <v>3.6</v>
@@ -10035,31 +10076,31 @@
         <v>6.8</v>
       </c>
       <c r="CI14" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="CJ14" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="CK14" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="CL14" t="n">
-        <v>19.7</v>
+        <v>19.9</v>
       </c>
       <c r="CM14" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="CN14" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="CO14" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="CP14" t="n">
         <v>14.6</v>
       </c>
       <c r="CQ14" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="CR14" t="n">
         <v>11.4</v>
@@ -10068,34 +10109,34 @@
         <v>11.4</v>
       </c>
       <c r="CT14" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="CU14" t="n">
+        <v>7</v>
+      </c>
+      <c r="CV14" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="CW14" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="CX14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="CY14" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="CZ14" t="n">
         <v>6.9</v>
       </c>
-      <c r="CV14" t="n">
-        <v>16.7</v>
-      </c>
-      <c r="CW14" t="n">
-        <v>14.6</v>
-      </c>
-      <c r="CX14" t="n">
-        <v>15.3</v>
-      </c>
-      <c r="CY14" t="n">
-        <v>11.1</v>
-      </c>
-      <c r="CZ14" t="n">
-        <v>7</v>
-      </c>
       <c r="DA14" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="DB14" t="n">
         <v>7.3</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="DD14" t="n">
         <v>1.2</v>
@@ -10107,28 +10148,28 @@
         <v>-10.6</v>
       </c>
       <c r="DG14" t="n">
-        <v>-6.9</v>
+        <v>-6.8</v>
       </c>
       <c r="DH14" t="n">
-        <v>-2</v>
+        <v>-1.9</v>
       </c>
       <c r="DI14" t="n">
-        <v>-4.7</v>
+        <v>-4.5</v>
       </c>
       <c r="DJ14" t="n">
-        <v>-3.8</v>
+        <v>-3.6</v>
       </c>
       <c r="DK14" t="n">
-        <v>-3.6</v>
+        <v>-4</v>
       </c>
       <c r="DL14" t="n">
-        <v>-13</v>
+        <v>-13.1</v>
       </c>
       <c r="DM14" t="n">
         <v>-11</v>
       </c>
       <c r="DN14" t="n">
-        <v>-13.7</v>
+        <v>-13.8</v>
       </c>
       <c r="DO14" t="n">
         <v>0.7</v>
@@ -10143,28 +10184,28 @@
         <v>-7.5</v>
       </c>
       <c r="DS14" t="n">
-        <v>-11.6</v>
+        <v>-11.5</v>
       </c>
       <c r="DT14" t="n">
-        <v>-7.5</v>
+        <v>-7.4</v>
       </c>
       <c r="DU14" t="n">
-        <v>-17.6</v>
+        <v>-17.4</v>
       </c>
       <c r="DV14" t="n">
-        <v>-8.1</v>
+        <v>-7.9</v>
       </c>
       <c r="DW14" t="n">
-        <v>-2.5</v>
+        <v>-2.8</v>
       </c>
       <c r="DX14" t="n">
-        <v>-12.9</v>
+        <v>-13</v>
       </c>
       <c r="DY14" t="n">
-        <v>-4.3</v>
+        <v>-4.4</v>
       </c>
       <c r="DZ14" t="n">
-        <v>-10.2</v>
+        <v>-10.3</v>
       </c>
       <c r="EA14" t="n">
         <v>-7.6</v>
@@ -10176,28 +10217,28 @@
         <v>-6.3</v>
       </c>
       <c r="ED14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="EE14" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="EF14" t="n">
-        <v>14.9</v>
+        <v>15</v>
       </c>
       <c r="EG14" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="EH14" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="EI14" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="EJ14" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="EK14" t="n">
-        <v>-4.3</v>
+        <v>-4.4</v>
       </c>
       <c r="EL14" t="n">
         <v>-11.2</v>
@@ -10215,97 +10256,97 @@
         <v>1.2</v>
       </c>
       <c r="EQ14" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="ER14" t="n">
-        <v>18.6</v>
+        <v>18.7</v>
       </c>
       <c r="ES14" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="ET14" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="EU14" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="EV14" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="EW14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="EX14" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="EY14" t="n">
         <v>5.7</v>
       </c>
       <c r="EZ14" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="FA14" t="n">
         <v>12.5</v>
       </c>
       <c r="FB14" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="FC14" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="FD14" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="FE14" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="FF14" t="n">
-        <v>10.5</v>
+        <v>10.7</v>
       </c>
       <c r="FG14" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="FH14" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="FI14" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="FJ14" t="n">
-        <v>11.7</v>
+        <v>11.6</v>
       </c>
       <c r="FK14" t="n">
         <v>4.9</v>
       </c>
       <c r="FL14" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="FM14" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="FN14" t="n">
-        <v>11.3</v>
+        <v>11.4</v>
       </c>
       <c r="FO14" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="FP14" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="FQ14" t="n">
-        <v>11.1</v>
+        <v>11.2</v>
       </c>
       <c r="FR14" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="FS14" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="FT14" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="FU14" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="FV14" t="n">
         <v>12.9</v>
@@ -10314,34 +10355,34 @@
         <v>17.3</v>
       </c>
       <c r="FX14" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="FY14" t="n">
-        <v>21.8</v>
+        <v>21.9</v>
       </c>
       <c r="FZ14" t="n">
         <v>8.1</v>
       </c>
       <c r="GA14" t="n">
-        <v>14.2</v>
+        <v>14.3</v>
       </c>
       <c r="GB14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="GC14" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="GD14" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="GE14" t="n">
-        <v>8.699999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="GF14" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="GG14" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="GH14" t="n">
         <v>3.7</v>
@@ -10353,34 +10394,34 @@
         <v>2.9</v>
       </c>
       <c r="GK14" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="GL14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="GM14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="GN14" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="GO14" t="n">
-        <v>-2.7</v>
+        <v>-2.5</v>
       </c>
       <c r="GP14" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="GQ14" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="GR14" t="n">
-        <v>-1.5</v>
+        <v>-1.7</v>
       </c>
       <c r="GS14" t="n">
-        <v>-1.9</v>
+        <v>-2</v>
       </c>
       <c r="GT14" t="n">
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
       <c r="GU14" t="n">
         <v>6.4</v>
@@ -10389,32 +10430,32 @@
         <v>7.3</v>
       </c>
       <c r="GW14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="GX14" t="n">
-        <v>-3.2</v>
+        <v>-3.1</v>
       </c>
       <c r="GY14" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="GZ14" t="n">
-        <v>-43.9</v>
+        <v>-43.8</v>
       </c>
       <c r="HA14" t="inlineStr"/>
       <c r="HB14" t="n">
-        <v>-37.2</v>
+        <v>-37</v>
       </c>
       <c r="HC14" t="n">
-        <v>-13.2</v>
+        <v>-13.6</v>
       </c>
       <c r="HD14" t="n">
-        <v>-1</v>
+        <v>-1.1</v>
       </c>
       <c r="HE14" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="HF14" t="n">
-        <v>-1.6</v>
+        <v>-1.7</v>
       </c>
       <c r="HG14" t="n">
         <v>-7.1</v>
@@ -10426,31 +10467,31 @@
         <v>-12.5</v>
       </c>
       <c r="HJ14" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="HK14" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="HL14" t="n">
-        <v>-1</v>
+        <v>-0.8</v>
       </c>
       <c r="HM14" t="n">
-        <v>11.3</v>
+        <v>11.5</v>
       </c>
       <c r="HN14" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="HO14" t="n">
-        <v>24.4</v>
+        <v>24</v>
       </c>
       <c r="HP14" t="n">
-        <v>28.7</v>
+        <v>28.5</v>
       </c>
       <c r="HQ14" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="HR14" t="n">
-        <v>21.5</v>
+        <v>21.4</v>
       </c>
       <c r="HS14" t="n">
         <v>9.4</v>
@@ -10462,19 +10503,22 @@
         <v>13.9</v>
       </c>
       <c r="HV14" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="HW14" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="HX14" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="HY14" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="HZ14" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
+      </c>
+      <c r="IA14" t="n">
+        <v>14.9</v>
       </c>
     </row>
     <row r="15">
@@ -10562,19 +10606,19 @@
         <v>3.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AD15" t="n">
-        <v>-3.5</v>
+        <v>-3.3</v>
       </c>
       <c r="AE15" t="n">
-        <v>-4.8</v>
+        <v>-5.2</v>
       </c>
       <c r="AF15" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="AG15" t="n">
         <v>6.1</v>
@@ -10592,25 +10636,25 @@
         <v>11.4</v>
       </c>
       <c r="AL15" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AM15" t="n">
-        <v>11</v>
+        <v>11.1</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>13.1</v>
       </c>
       <c r="AO15" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="AP15" t="n">
-        <v>21.7</v>
+        <v>21.9</v>
       </c>
       <c r="AQ15" t="n">
-        <v>15.1</v>
+        <v>14.7</v>
       </c>
       <c r="AR15" t="n">
-        <v>15.3</v>
+        <v>15.2</v>
       </c>
       <c r="AS15" t="n">
         <v>17.1</v>
@@ -10631,25 +10675,25 @@
         <v>2.9</v>
       </c>
       <c r="AY15" t="n">
-        <v>13.7</v>
+        <v>13.8</v>
       </c>
       <c r="AZ15" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="BA15" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="BB15" t="n">
-        <v>11.4</v>
+        <v>11.5</v>
       </c>
       <c r="BC15" t="n">
-        <v>13.1</v>
+        <v>12.7</v>
       </c>
       <c r="BD15" t="n">
         <v>-3.5</v>
       </c>
       <c r="BE15" t="n">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="BF15" t="n">
         <v>-1</v>
@@ -10661,34 +10705,34 @@
         <v>7.2</v>
       </c>
       <c r="BI15" t="n">
-        <v>9.699999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="BJ15" t="n">
-        <v>-5.1</v>
+        <v>-5</v>
       </c>
       <c r="BK15" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="BL15" t="n">
-        <v>-5.1</v>
+        <v>-5</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="BN15" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="BO15" t="n">
-        <v>9.9</v>
+        <v>9.5</v>
       </c>
       <c r="BP15" t="n">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="BQ15" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="BR15" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="BS15" t="n">
         <v>-4.3</v>
@@ -10697,31 +10741,31 @@
         <v>-7.6</v>
       </c>
       <c r="BU15" t="n">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="BV15" t="n">
-        <v>-4</v>
+        <v>-3.9</v>
       </c>
       <c r="BW15" t="n">
-        <v>-14.1</v>
+        <v>-14</v>
       </c>
       <c r="BX15" t="n">
-        <v>-21.8</v>
+        <v>-21.7</v>
       </c>
       <c r="BY15" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="BZ15" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="CA15" t="n">
-        <v>-11.3</v>
+        <v>-11.6</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="CC15" t="n">
-        <v>-4.3</v>
+        <v>-4.4</v>
       </c>
       <c r="CD15" t="n">
         <v>-6.5</v>
@@ -10739,25 +10783,25 @@
         <v>12.6</v>
       </c>
       <c r="CI15" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="CJ15" t="n">
-        <v>10</v>
+        <v>10.1</v>
       </c>
       <c r="CK15" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="CL15" t="n">
-        <v>-1.1</v>
+        <v>-1</v>
       </c>
       <c r="CM15" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="CN15" t="n">
         <v>7.5</v>
       </c>
       <c r="CO15" t="n">
-        <v>14.8</v>
+        <v>14.7</v>
       </c>
       <c r="CP15" t="n">
         <v>9.1</v>
@@ -10775,22 +10819,22 @@
         <v>9</v>
       </c>
       <c r="CU15" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="CV15" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="CW15" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="CX15" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="CY15" t="n">
-        <v>12.9</v>
+        <v>12.5</v>
       </c>
       <c r="CZ15" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="DA15" t="n">
         <v>7.1</v>
@@ -10805,31 +10849,31 @@
         <v>1.8</v>
       </c>
       <c r="DE15" t="n">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="DF15" t="n">
-        <v>-19.3</v>
+        <v>-19.2</v>
       </c>
       <c r="DG15" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="DH15" t="n">
-        <v>-3.6</v>
+        <v>-3.5</v>
       </c>
       <c r="DI15" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="DJ15" t="n">
-        <v>-9.5</v>
+        <v>-9.4</v>
       </c>
       <c r="DK15" t="n">
-        <v>-23.2</v>
+        <v>-23.6</v>
       </c>
       <c r="DL15" t="n">
-        <v>-7.9</v>
+        <v>-8</v>
       </c>
       <c r="DM15" t="n">
-        <v>-15.5</v>
+        <v>-15.6</v>
       </c>
       <c r="DN15" t="n">
         <v>-12.4</v>
@@ -10841,31 +10885,31 @@
         <v>-11.4</v>
       </c>
       <c r="DQ15" t="n">
-        <v>-14.3</v>
+        <v>-14.2</v>
       </c>
       <c r="DR15" t="n">
         <v>-13.4</v>
       </c>
       <c r="DS15" t="n">
-        <v>-20.8</v>
+        <v>-20.7</v>
       </c>
       <c r="DT15" t="n">
-        <v>-20.1</v>
+        <v>-20</v>
       </c>
       <c r="DU15" t="n">
-        <v>-3.2</v>
+        <v>-3</v>
       </c>
       <c r="DV15" t="n">
-        <v>-7.8</v>
+        <v>-7.6</v>
       </c>
       <c r="DW15" t="n">
-        <v>-24.7</v>
+        <v>-25.1</v>
       </c>
       <c r="DX15" t="n">
-        <v>-15</v>
+        <v>-15.1</v>
       </c>
       <c r="DY15" t="n">
-        <v>-13.5</v>
+        <v>-13.6</v>
       </c>
       <c r="DZ15" t="n">
         <v>-12.3</v>
@@ -10874,7 +10918,7 @@
         <v>-27.5</v>
       </c>
       <c r="EB15" t="n">
-        <v>-17.5</v>
+        <v>-17.4</v>
       </c>
       <c r="EC15" t="n">
         <v>-27.7</v>
@@ -10883,25 +10927,25 @@
         <v>-1.5</v>
       </c>
       <c r="EE15" t="n">
-        <v>-6</v>
+        <v>-5.9</v>
       </c>
       <c r="EF15" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="EG15" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="EH15" t="n">
-        <v>-16.2</v>
+        <v>-16</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.7</v>
+        <v>0.3</v>
       </c>
       <c r="EJ15" t="n">
         <v>-11.1</v>
       </c>
       <c r="EK15" t="n">
-        <v>-8.5</v>
+        <v>-8.6</v>
       </c>
       <c r="EL15" t="n">
         <v>-0.4</v>
@@ -10916,67 +10960,67 @@
         <v>-2.8</v>
       </c>
       <c r="EP15" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="EQ15" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="ER15" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="ES15" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="ET15" t="n">
-        <v>11.1</v>
+        <v>11.3</v>
       </c>
       <c r="EU15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="EV15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="EW15" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="EX15" t="n">
         <v>5.9</v>
       </c>
       <c r="EY15" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="EZ15" t="n">
         <v>20</v>
       </c>
       <c r="FA15" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="FB15" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="FC15" t="n">
-        <v>10.9</v>
+        <v>11</v>
       </c>
       <c r="FD15" t="n">
-        <v>17.6</v>
+        <v>17.7</v>
       </c>
       <c r="FE15" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="FF15" t="n">
-        <v>14.7</v>
+        <v>14.9</v>
       </c>
       <c r="FG15" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="FH15" t="n">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="FI15" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="FJ15" t="n">
-        <v>-7</v>
+        <v>-7.1</v>
       </c>
       <c r="FK15" t="n">
         <v>-4</v>
@@ -10991,31 +11035,31 @@
         <v>-2</v>
       </c>
       <c r="FO15" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="FP15" t="n">
-        <v>-3.1</v>
+        <v>-2.9</v>
       </c>
       <c r="FQ15" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="FR15" t="n">
-        <v>9.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="FS15" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="FT15" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="FU15" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="FV15" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="FW15" t="n">
-        <v>10</v>
+        <v>9.9</v>
       </c>
       <c r="FX15" t="n">
         <v>6.5</v>
@@ -11024,161 +11068,164 @@
         <v>25.4</v>
       </c>
       <c r="FZ15" t="n">
-        <v>8.9</v>
+        <v>9</v>
       </c>
       <c r="GA15" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="GB15" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="GC15" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="GD15" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="GE15" t="n">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="GF15" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="GG15" t="n">
-        <v>11.1</v>
+        <v>11</v>
       </c>
       <c r="GH15" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="GI15" t="n">
-        <v>10.1</v>
+        <v>10</v>
       </c>
       <c r="GJ15" t="n">
-        <v>9.6</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="GK15" t="n">
         <v>6.1</v>
       </c>
       <c r="GL15" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="GM15" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="GN15" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="GO15" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="GP15" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="GQ15" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="GR15" t="n">
-        <v>10.1</v>
+        <v>9.9</v>
       </c>
       <c r="GS15" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="GT15" t="n">
         <v>3.8</v>
       </c>
       <c r="GU15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="GV15" t="n">
         <v>0.2</v>
       </c>
       <c r="GW15" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="GX15" t="n">
         <v>8.1</v>
       </c>
       <c r="GY15" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="GZ15" t="n">
-        <v>-55.8</v>
+        <v>-55.7</v>
       </c>
       <c r="HA15" t="inlineStr"/>
       <c r="HB15" t="n">
-        <v>-59.7</v>
+        <v>-59.4</v>
       </c>
       <c r="HC15" t="n">
-        <v>-6.6</v>
+        <v>-7.1</v>
       </c>
       <c r="HD15" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="HE15" t="n">
-        <v>-11.7</v>
+        <v>-11.8</v>
       </c>
       <c r="HF15" t="n">
         <v>-10.9</v>
       </c>
       <c r="HG15" t="n">
-        <v>-10.7</v>
+        <v>-10.8</v>
       </c>
       <c r="HH15" t="n">
         <v>-33.3</v>
       </c>
       <c r="HI15" t="n">
-        <v>-25.3</v>
+        <v>-25.2</v>
       </c>
       <c r="HJ15" t="n">
-        <v>-11.8</v>
+        <v>-11.7</v>
       </c>
       <c r="HK15" t="n">
-        <v>-10.2</v>
+        <v>-10.1</v>
       </c>
       <c r="HL15" t="n">
-        <v>-21.3</v>
+        <v>-21.1</v>
       </c>
       <c r="HM15" t="n">
-        <v>-4</v>
+        <v>-3.8</v>
       </c>
       <c r="HN15" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="HO15" t="n">
-        <v>14.4</v>
+        <v>13.9</v>
       </c>
       <c r="HP15" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="HQ15" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="HR15" t="n">
         <v>8.5</v>
       </c>
       <c r="HS15" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="HT15" t="n">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="HU15" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="HV15" t="n">
-        <v>-4.1</v>
+        <v>-4</v>
       </c>
       <c r="HW15" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="HX15" t="n">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="HY15" t="n">
-        <v>-3.2</v>
+        <v>-3</v>
       </c>
       <c r="HZ15" t="n">
-        <v>0.2</v>
+        <v>0.5</v>
+      </c>
+      <c r="IA15" t="n">
+        <v>11.3</v>
       </c>
     </row>
     <row r="16">
@@ -11275,10 +11322,10 @@
         <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="AF16" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AG16" t="n">
         <v>10.3</v>
@@ -11302,7 +11349,7 @@
         <v>10.3</v>
       </c>
       <c r="AN16" t="n">
-        <v>22.1</v>
+        <v>22</v>
       </c>
       <c r="AO16" t="n">
         <v>24.6</v>
@@ -11311,13 +11358,13 @@
         <v>20.2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>23.9</v>
+        <v>23.8</v>
       </c>
       <c r="AR16" t="n">
         <v>12.1</v>
       </c>
       <c r="AS16" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="AT16" t="n">
         <v>22.2</v>
@@ -11326,7 +11373,7 @@
         <v>18</v>
       </c>
       <c r="AV16" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="AW16" t="n">
         <v>28.8</v>
@@ -11347,10 +11394,10 @@
         <v>35.7</v>
       </c>
       <c r="BC16" t="n">
-        <v>28.2</v>
+        <v>28.1</v>
       </c>
       <c r="BD16" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="BE16" t="n">
         <v>8.6</v>
@@ -11371,7 +11418,7 @@
         <v>12.6</v>
       </c>
       <c r="BK16" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="BL16" t="n">
         <v>19.1</v>
@@ -11383,10 +11430,10 @@
         <v>25.9</v>
       </c>
       <c r="BO16" t="n">
-        <v>19.7</v>
+        <v>19.6</v>
       </c>
       <c r="BP16" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="BQ16" t="n">
         <v>12.8</v>
@@ -11410,7 +11457,7 @@
         <v>-6.4</v>
       </c>
       <c r="BX16" t="n">
-        <v>-8.9</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="BY16" t="n">
         <v>-4.7</v>
@@ -11419,7 +11466,7 @@
         <v>0.1</v>
       </c>
       <c r="CA16" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="CB16" t="n">
         <v>2.9</v>
@@ -11449,13 +11496,13 @@
         <v>1.9</v>
       </c>
       <c r="CK16" t="n">
-        <v>10.6</v>
+        <v>10.7</v>
       </c>
       <c r="CL16" t="n">
         <v>0.3</v>
       </c>
       <c r="CM16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="CN16" t="n">
         <v>19.3</v>
@@ -11473,7 +11520,7 @@
         <v>0.6</v>
       </c>
       <c r="CS16" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="CT16" t="n">
         <v>10.4</v>
@@ -11482,19 +11529,19 @@
         <v>3.4</v>
       </c>
       <c r="CV16" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="CW16" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="CX16" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="CY16" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="CZ16" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="DA16" t="n">
         <v>6.7</v>
@@ -11515,22 +11562,22 @@
         <v>-1.1</v>
       </c>
       <c r="DG16" t="n">
-        <v>-1</v>
+        <v>-0.9</v>
       </c>
       <c r="DH16" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="DI16" t="n">
         <v>4.2</v>
       </c>
       <c r="DJ16" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="DK16" t="n">
-        <v>-1.8</v>
+        <v>-2</v>
       </c>
       <c r="DL16" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="DM16" t="n">
         <v>-4.6</v>
@@ -11554,22 +11601,22 @@
         <v>-7.3</v>
       </c>
       <c r="DT16" t="n">
-        <v>-2.6</v>
+        <v>-2.5</v>
       </c>
       <c r="DU16" t="n">
-        <v>-30.7</v>
+        <v>-30.6</v>
       </c>
       <c r="DV16" t="n">
-        <v>-26.7</v>
+        <v>-26.6</v>
       </c>
       <c r="DW16" t="n">
-        <v>-23.1</v>
+        <v>-23.2</v>
       </c>
       <c r="DX16" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="DY16" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="DZ16" t="n">
         <v>6.4</v>
@@ -11593,22 +11640,22 @@
         <v>-3.9</v>
       </c>
       <c r="EG16" t="n">
-        <v>-15.2</v>
+        <v>-15.1</v>
       </c>
       <c r="EH16" t="n">
-        <v>-24.5</v>
+        <v>-24.4</v>
       </c>
       <c r="EI16" t="n">
-        <v>-18.8</v>
+        <v>-18.9</v>
       </c>
       <c r="EJ16" t="n">
-        <v>-6.1</v>
+        <v>-6.2</v>
       </c>
       <c r="EK16" t="n">
-        <v>-2.7</v>
+        <v>-2.8</v>
       </c>
       <c r="EL16" t="n">
-        <v>-1.2</v>
+        <v>-1.3</v>
       </c>
       <c r="EM16" t="n">
         <v>13</v>
@@ -11626,22 +11673,22 @@
         <v>-3.9</v>
       </c>
       <c r="ER16" t="n">
-        <v>-4.9</v>
+        <v>-4.7</v>
       </c>
       <c r="ES16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="ET16" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="EU16" t="n">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="EV16" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="EW16" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="EX16" t="n">
         <v>10.5</v>
@@ -11659,28 +11706,28 @@
         <v>4.3</v>
       </c>
       <c r="FC16" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="FD16" t="n">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="FE16" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="FF16" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="FG16" t="n">
-        <v>-3.6</v>
+        <v>-3.8</v>
       </c>
       <c r="FH16" t="n">
-        <v>-0.2</v>
+        <v>-0.3</v>
       </c>
       <c r="FI16" t="n">
         <v>-5.1</v>
       </c>
       <c r="FJ16" t="n">
-        <v>-0.9</v>
+        <v>-1</v>
       </c>
       <c r="FK16" t="n">
         <v>4.4</v>
@@ -11692,28 +11739,28 @@
         <v>-13.1</v>
       </c>
       <c r="FN16" t="n">
-        <v>-7.1</v>
+        <v>-7</v>
       </c>
       <c r="FO16" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="FP16" t="n">
-        <v>-0.7</v>
+        <v>-0.6</v>
       </c>
       <c r="FQ16" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="FR16" t="n">
+        <v>-2.1</v>
+      </c>
+      <c r="FS16" t="n">
         <v>-2.2</v>
       </c>
-      <c r="FS16" t="n">
-        <v>-2</v>
-      </c>
       <c r="FT16" t="n">
-        <v>-1.1</v>
+        <v>-1.3</v>
       </c>
       <c r="FU16" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="FV16" t="n">
         <v>-2.7</v>
@@ -11731,25 +11778,25 @@
         <v>7.3</v>
       </c>
       <c r="GA16" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="GB16" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="GC16" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="GD16" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="GE16" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="GF16" t="n">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="GG16" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="GH16" t="n">
         <v>-2.6</v>
@@ -11767,95 +11814,95 @@
         <v>9.1</v>
       </c>
       <c r="GM16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="GN16" t="n">
-        <v>-2.2</v>
+        <v>-2</v>
       </c>
       <c r="GO16" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="GP16" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="GQ16" t="n">
-        <v>6.8</v>
+        <v>6.5</v>
       </c>
       <c r="GR16" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="GS16" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="GT16" t="n">
         <v>-4.3</v>
       </c>
       <c r="GU16" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="GV16" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="GW16" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="GX16" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="GY16" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="GZ16" t="n">
-        <v>-51</v>
+        <v>-50.8</v>
       </c>
       <c r="HA16" t="inlineStr"/>
       <c r="HB16" t="n">
-        <v>-46.6</v>
+        <v>-46.5</v>
       </c>
       <c r="HC16" t="n">
-        <v>-11.9</v>
+        <v>-12.4</v>
       </c>
       <c r="HD16" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="HE16" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="HF16" t="n">
         <v>0.9</v>
       </c>
       <c r="HG16" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.800000000000001</v>
       </c>
       <c r="HH16" t="n">
-        <v>-30.3</v>
+        <v>-30.2</v>
       </c>
       <c r="HI16" t="n">
         <v>-9.5</v>
       </c>
       <c r="HJ16" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.6</v>
       </c>
       <c r="HK16" t="n">
-        <v>-8.6</v>
+        <v>-8.5</v>
       </c>
       <c r="HL16" t="n">
-        <v>-10.9</v>
+        <v>-10.7</v>
       </c>
       <c r="HM16" t="n">
-        <v>-2.4</v>
+        <v>-2.2</v>
       </c>
       <c r="HN16" t="n">
-        <v>17.1</v>
+        <v>17.3</v>
       </c>
       <c r="HO16" t="n">
-        <v>23.4</v>
+        <v>22.9</v>
       </c>
       <c r="HP16" t="n">
-        <v>16</v>
+        <v>15.8</v>
       </c>
       <c r="HQ16" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="HR16" t="n">
         <v>12.9</v>
@@ -11864,25 +11911,28 @@
         <v>19.5</v>
       </c>
       <c r="HT16" t="n">
-        <v>16.6</v>
+        <v>16.7</v>
       </c>
       <c r="HU16" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="HV16" t="n">
-        <v>-2.8</v>
+        <v>-2.7</v>
       </c>
       <c r="HW16" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="HX16" t="n">
-        <v>8</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="HY16" t="n">
-        <v>4.6</v>
+        <v>4.9</v>
       </c>
       <c r="HZ16" t="n">
-        <v>3</v>
+        <v>3.2</v>
+      </c>
+      <c r="IA16" t="n">
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -11970,7 +12020,7 @@
         <v>12.5</v>
       </c>
       <c r="AB17" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="AC17" t="n">
         <v>10.2</v>
@@ -11979,19 +12029,19 @@
         <v>9.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="AF17" t="n">
         <v>10.3</v>
       </c>
       <c r="AG17" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="AH17" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="AI17" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="AJ17" t="n">
         <v>9.5</v>
@@ -12000,16 +12050,16 @@
         <v>7</v>
       </c>
       <c r="AL17" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AM17" t="n">
         <v>13.3</v>
       </c>
       <c r="AN17" t="n">
-        <v>9.300000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AO17" t="n">
-        <v>11.2</v>
+        <v>11.3</v>
       </c>
       <c r="AP17" t="n">
         <v>16.3</v>
@@ -12018,22 +12068,22 @@
         <v>16.3</v>
       </c>
       <c r="AR17" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="AS17" t="n">
         <v>11.7</v>
       </c>
       <c r="AT17" t="n">
-        <v>26.4</v>
+        <v>26.3</v>
       </c>
       <c r="AU17" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="AV17" t="n">
         <v>13.3</v>
       </c>
       <c r="AW17" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="AX17" t="n">
         <v>6.2</v>
@@ -12051,7 +12101,7 @@
         <v>4.5</v>
       </c>
       <c r="BC17" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="BD17" t="n">
         <v>2.1</v>
@@ -12060,7 +12110,7 @@
         <v>1.3</v>
       </c>
       <c r="BF17" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="BG17" t="n">
         <v>4.3</v>
@@ -12072,7 +12122,7 @@
         <v>3.9</v>
       </c>
       <c r="BJ17" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BK17" t="n">
         <v>1.8</v>
@@ -12081,16 +12131,16 @@
         <v>9</v>
       </c>
       <c r="BM17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="BN17" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="BO17" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="BP17" t="n">
-        <v>10.1</v>
+        <v>10.2</v>
       </c>
       <c r="BQ17" t="n">
         <v>2.4</v>
@@ -12108,34 +12158,34 @@
         <v>0.7</v>
       </c>
       <c r="BV17" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BW17" t="n">
         <v>-8</v>
       </c>
       <c r="BX17" t="n">
-        <v>-5.8</v>
+        <v>-5.7</v>
       </c>
       <c r="BY17" t="n">
         <v>-8.6</v>
       </c>
       <c r="BZ17" t="n">
-        <v>8.9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="CA17" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="CB17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="CC17" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="CD17" t="n">
         <v>9.1</v>
       </c>
       <c r="CE17" t="n">
-        <v>-0.8</v>
+        <v>-0.7</v>
       </c>
       <c r="CF17" t="n">
         <v>8.199999999999999</v>
@@ -12144,7 +12194,7 @@
         <v>16.4</v>
       </c>
       <c r="CH17" t="n">
-        <v>-1.9</v>
+        <v>-1.8</v>
       </c>
       <c r="CI17" t="n">
         <v>9.699999999999999</v>
@@ -12159,7 +12209,7 @@
         <v>14</v>
       </c>
       <c r="CM17" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="CN17" t="n">
         <v>16.3</v>
@@ -12174,28 +12224,28 @@
         <v>2.6</v>
       </c>
       <c r="CR17" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="CS17" t="n">
         <v>2.6</v>
       </c>
       <c r="CT17" t="n">
-        <v>-1.1</v>
+        <v>-0.9</v>
       </c>
       <c r="CU17" t="n">
         <v>9.9</v>
       </c>
       <c r="CV17" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="CW17" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="CX17" t="n">
         <v>-0.4</v>
       </c>
       <c r="CY17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="CZ17" t="n">
         <v>-6.9</v>
@@ -12210,13 +12260,13 @@
         <v>1</v>
       </c>
       <c r="DD17" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="DE17" t="n">
         <v>-1.2</v>
       </c>
       <c r="DF17" t="n">
-        <v>-11.3</v>
+        <v>-11.2</v>
       </c>
       <c r="DG17" t="n">
         <v>-4.7</v>
@@ -12246,10 +12296,10 @@
         <v>2.4</v>
       </c>
       <c r="DP17" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="DQ17" t="n">
-        <v>-8.699999999999999</v>
+        <v>-8.6</v>
       </c>
       <c r="DR17" t="n">
         <v>-4.2</v>
@@ -12264,10 +12314,10 @@
         <v>-19.6</v>
       </c>
       <c r="DV17" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="DW17" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="DX17" t="n">
         <v>-4.1</v>
@@ -12276,10 +12326,10 @@
         <v>-1.6</v>
       </c>
       <c r="DZ17" t="n">
-        <v>-6.7</v>
+        <v>-6.6</v>
       </c>
       <c r="EA17" t="n">
-        <v>-12.5</v>
+        <v>-12.6</v>
       </c>
       <c r="EB17" t="n">
         <v>-10.5</v>
@@ -12315,19 +12365,19 @@
         <v>1.7</v>
       </c>
       <c r="EM17" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="EN17" t="n">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="EO17" t="n">
-        <v>13.3</v>
+        <v>13.4</v>
       </c>
       <c r="EP17" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="EQ17" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="ER17" t="n">
         <v>2.9</v>
@@ -12336,16 +12386,16 @@
         <v>-11.5</v>
       </c>
       <c r="ET17" t="n">
-        <v>-6.6</v>
+        <v>-6.5</v>
       </c>
       <c r="EU17" t="n">
-        <v>-4.8</v>
+        <v>-4.9</v>
       </c>
       <c r="EV17" t="n">
         <v>23.4</v>
       </c>
       <c r="EW17" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="EX17" t="n">
         <v>15.1</v>
@@ -12357,31 +12407,31 @@
         <v>16.5</v>
       </c>
       <c r="FA17" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="FB17" t="n">
         <v>9.9</v>
       </c>
       <c r="FC17" t="n">
-        <v>10.2</v>
+        <v>10.3</v>
       </c>
       <c r="FD17" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="FE17" t="n">
         <v>14.9</v>
       </c>
       <c r="FF17" t="n">
-        <v>18.2</v>
+        <v>18.3</v>
       </c>
       <c r="FG17" t="n">
-        <v>18.1</v>
+        <v>18</v>
       </c>
       <c r="FH17" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="FI17" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="FJ17" t="n">
         <v>16.5</v>
@@ -12390,28 +12440,28 @@
         <v>8.4</v>
       </c>
       <c r="FL17" t="n">
-        <v>9.9</v>
+        <v>10</v>
       </c>
       <c r="FM17" t="n">
-        <v>-4.5</v>
+        <v>-4.4</v>
       </c>
       <c r="FN17" t="n">
         <v>6.7</v>
       </c>
       <c r="FO17" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="FP17" t="n">
         <v>15.6</v>
       </c>
       <c r="FQ17" t="n">
-        <v>25.5</v>
+        <v>25.4</v>
       </c>
       <c r="FR17" t="n">
         <v>14.4</v>
       </c>
       <c r="FS17" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="FT17" t="n">
         <v>10.8</v>
@@ -12429,13 +12479,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="FY17" t="n">
-        <v>10.5</v>
+        <v>10.6</v>
       </c>
       <c r="FZ17" t="n">
         <v>2.2</v>
       </c>
       <c r="GA17" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="GB17" t="n">
         <v>18.6</v>
@@ -12444,13 +12494,13 @@
         <v>7.6</v>
       </c>
       <c r="GD17" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="GE17" t="n">
-        <v>5.8</v>
+        <v>5.3</v>
       </c>
       <c r="GF17" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="GG17" t="n">
         <v>6.4</v>
@@ -12462,43 +12512,43 @@
         <v>2.4</v>
       </c>
       <c r="GJ17" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="GK17" t="n">
         <v>15.3</v>
       </c>
       <c r="GL17" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="GM17" t="n">
         <v>16.3</v>
       </c>
       <c r="GN17" t="n">
-        <v>12.8</v>
+        <v>12.9</v>
       </c>
       <c r="GO17" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="GP17" t="n">
-        <v>9.5</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="GQ17" t="n">
-        <v>15.3</v>
+        <v>14.7</v>
       </c>
       <c r="GR17" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="GS17" t="n">
         <v>15</v>
       </c>
       <c r="GT17" t="n">
-        <v>13.5</v>
+        <v>13.6</v>
       </c>
       <c r="GU17" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="GV17" t="n">
-        <v>16.7</v>
+        <v>16.8</v>
       </c>
       <c r="GW17" t="n">
         <v>18.7</v>
@@ -12507,20 +12557,20 @@
         <v>18.9</v>
       </c>
       <c r="GY17" t="n">
-        <v>17.9</v>
+        <v>18</v>
       </c>
       <c r="GZ17" t="n">
-        <v>-44.6</v>
+        <v>-44.5</v>
       </c>
       <c r="HA17" t="inlineStr"/>
       <c r="HB17" t="n">
-        <v>-55</v>
+        <v>-54.8</v>
       </c>
       <c r="HC17" t="n">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="HD17" t="n">
-        <v>-2.6</v>
+        <v>-2.7</v>
       </c>
       <c r="HE17" t="n">
         <v>-3.6</v>
@@ -12532,7 +12582,7 @@
         <v>4.2</v>
       </c>
       <c r="HH17" t="n">
-        <v>-15.3</v>
+        <v>-15.1</v>
       </c>
       <c r="HI17" t="n">
         <v>10.8</v>
@@ -12541,52 +12591,55 @@
         <v>7.6</v>
       </c>
       <c r="HK17" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="HL17" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="HM17" t="n">
-        <v>-4.6</v>
+        <v>-4.2</v>
       </c>
       <c r="HN17" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="HO17" t="n">
-        <v>16.6</v>
+        <v>15.2</v>
       </c>
       <c r="HP17" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="HQ17" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="HR17" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="HS17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="HT17" t="n">
-        <v>10.8</v>
+        <v>11</v>
       </c>
       <c r="HU17" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="HV17" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="HW17" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="HX17" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="HY17" t="n">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="HZ17" t="n">
-        <v>6.5</v>
+        <v>6.9</v>
+      </c>
+      <c r="IA17" t="n">
+        <v>9.4</v>
       </c>
     </row>
     <row r="18">
@@ -13292,6 +13345,9 @@
       <c r="HZ18" t="n">
         <v>7.2</v>
       </c>
+      <c r="IA18" t="n">
+        <v>7.6</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -13495,7 +13551,7 @@
         <v>2.4</v>
       </c>
       <c r="BO19" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="BP19" t="n">
         <v>2.6</v>
@@ -13525,13 +13581,13 @@
         <v>-1.1</v>
       </c>
       <c r="BY19" t="n">
-        <v>-0.3</v>
+        <v>-0.4</v>
       </c>
       <c r="BZ19" t="n">
         <v>-0.2</v>
       </c>
       <c r="CA19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="CB19" t="n">
         <v>-1.6</v>
@@ -13552,7 +13608,7 @@
         <v>0.5</v>
       </c>
       <c r="CH19" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="CI19" t="n">
         <v>-1.2</v>
@@ -13570,10 +13626,10 @@
         <v>1.4</v>
       </c>
       <c r="CN19" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="CO19" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="CP19" t="n">
         <v>-0.9</v>
@@ -13627,7 +13683,7 @@
         <v>-6.7</v>
       </c>
       <c r="DG19" t="n">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="DH19" t="n">
         <v>-1</v>
@@ -13663,7 +13719,7 @@
         <v>-11.7</v>
       </c>
       <c r="DS19" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="DT19" t="n">
         <v>-7.4</v>
@@ -13705,7 +13761,7 @@
         <v>-1.3</v>
       </c>
       <c r="EG19" t="n">
-        <v>-6.6</v>
+        <v>-6.7</v>
       </c>
       <c r="EH19" t="n">
         <v>-14.4</v>
@@ -13720,7 +13776,7 @@
         <v>-6.8</v>
       </c>
       <c r="EL19" t="n">
-        <v>-9.9</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="EM19" t="n">
         <v>-20</v>
@@ -13756,7 +13812,7 @@
         <v>-3.6</v>
       </c>
       <c r="EX19" t="n">
-        <v>-1.2</v>
+        <v>-1.1</v>
       </c>
       <c r="EY19" t="n">
         <v>-5.9</v>
@@ -13789,10 +13845,10 @@
         <v>-6</v>
       </c>
       <c r="FI19" t="n">
-        <v>-2.3</v>
+        <v>-2.2</v>
       </c>
       <c r="FJ19" t="n">
-        <v>-4</v>
+        <v>-3.9</v>
       </c>
       <c r="FK19" t="n">
         <v>-7.9</v>
@@ -13849,7 +13905,7 @@
         <v>12.6</v>
       </c>
       <c r="GC19" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="GD19" t="n">
         <v>0.3</v>
@@ -13888,10 +13944,10 @@
         <v>2</v>
       </c>
       <c r="GP19" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="GQ19" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="GR19" t="n">
         <v>9.9</v>
@@ -13925,7 +13981,7 @@
         <v>-37.2</v>
       </c>
       <c r="HC19" t="n">
-        <v>-19.8</v>
+        <v>-19.7</v>
       </c>
       <c r="HD19" t="n">
         <v>-11.3</v>
@@ -13955,13 +14011,13 @@
         <v>-6.9</v>
       </c>
       <c r="HM19" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="HN19" t="n">
         <v>4.3</v>
       </c>
       <c r="HO19" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="HP19" t="n">
         <v>7.7</v>
@@ -13991,10 +14047,13 @@
         <v>2.4</v>
       </c>
       <c r="HY19" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="HZ19" t="n">
         <v>10.3</v>
+      </c>
+      <c r="IA19" t="n">
+        <v>7.4</v>
       </c>
     </row>
     <row r="20">
@@ -14700,6 +14759,9 @@
       <c r="HZ20" t="n">
         <v>4.4</v>
       </c>
+      <c r="IA20" t="n">
+        <v>7.2</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -14795,7 +14857,7 @@
         <v>1.4</v>
       </c>
       <c r="AE21" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="AF21" t="n">
         <v>-0.8</v>
@@ -14870,10 +14932,10 @@
         <v>3.8</v>
       </c>
       <c r="BD21" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="BE21" t="n">
-        <v>-3.9</v>
+        <v>-3.8</v>
       </c>
       <c r="BF21" t="n">
         <v>-1.2</v>
@@ -14978,7 +15040,7 @@
         <v>-1.3</v>
       </c>
       <c r="CN21" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="CO21" t="n">
         <v>-3.8</v>
@@ -14999,7 +15061,7 @@
         <v>2.5</v>
       </c>
       <c r="CU21" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="CV21" t="n">
         <v>-1.4</v>
@@ -15038,7 +15100,7 @@
         <v>-13.7</v>
       </c>
       <c r="DH21" t="n">
-        <v>-10.1</v>
+        <v>-10</v>
       </c>
       <c r="DI21" t="n">
         <v>-13.7</v>
@@ -15074,7 +15136,7 @@
         <v>-4.1</v>
       </c>
       <c r="DT21" t="n">
-        <v>-16.1</v>
+        <v>-16</v>
       </c>
       <c r="DU21" t="n">
         <v>-6.3</v>
@@ -15083,10 +15145,10 @@
         <v>-7.3</v>
       </c>
       <c r="DW21" t="n">
-        <v>-11.6</v>
+        <v>-11.7</v>
       </c>
       <c r="DX21" t="n">
-        <v>-17</v>
+        <v>-17.1</v>
       </c>
       <c r="DY21" t="n">
         <v>-7.3</v>
@@ -15098,7 +15160,7 @@
         <v>-8.5</v>
       </c>
       <c r="EB21" t="n">
-        <v>-7.6</v>
+        <v>-7.7</v>
       </c>
       <c r="EC21" t="n">
         <v>-15.5</v>
@@ -15119,10 +15181,10 @@
         <v>-10.5</v>
       </c>
       <c r="EI21" t="n">
-        <v>-0.5</v>
+        <v>-0.6</v>
       </c>
       <c r="EJ21" t="n">
-        <v>-9.6</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="EK21" t="n">
         <v>-18.6</v>
@@ -15137,7 +15199,7 @@
         <v>-2.2</v>
       </c>
       <c r="EO21" t="n">
-        <v>-0.6</v>
+        <v>-0.5</v>
       </c>
       <c r="EP21" t="n">
         <v>-5.6</v>
@@ -15149,13 +15211,13 @@
         <v>-5</v>
       </c>
       <c r="ES21" t="n">
-        <v>-22.6</v>
+        <v>-22.5</v>
       </c>
       <c r="ET21" t="n">
         <v>-4.7</v>
       </c>
       <c r="EU21" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="EV21" t="n">
         <v>8.5</v>
@@ -15167,10 +15229,10 @@
         <v>0.9</v>
       </c>
       <c r="EY21" t="n">
-        <v>-5.8</v>
+        <v>-5.7</v>
       </c>
       <c r="EZ21" t="n">
-        <v>-12.1</v>
+        <v>-12</v>
       </c>
       <c r="FA21" t="n">
         <v>-5.5</v>
@@ -15182,7 +15244,7 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="FD21" t="n">
-        <v>-2.2</v>
+        <v>-2.1</v>
       </c>
       <c r="FE21" t="n">
         <v>-5.8</v>
@@ -15191,7 +15253,7 @@
         <v>2.9</v>
       </c>
       <c r="FG21" t="n">
-        <v>-2.9</v>
+        <v>-3.1</v>
       </c>
       <c r="FH21" t="n">
         <v>-0.4</v>
@@ -15206,7 +15268,7 @@
         <v>-3.9</v>
       </c>
       <c r="FL21" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="FM21" t="n">
         <v>1.4</v>
@@ -15224,22 +15286,22 @@
         <v>12.9</v>
       </c>
       <c r="FR21" t="n">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="FS21" t="n">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="FT21" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="FU21" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="FV21" t="n">
         <v>0.1</v>
       </c>
       <c r="FW21" t="n">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="FX21" t="n">
         <v>-1.8</v>
@@ -15248,161 +15310,164 @@
         <v>2.1</v>
       </c>
       <c r="FZ21" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="GA21" t="n">
         <v>2.8</v>
       </c>
       <c r="GB21" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="GC21" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="GD21" t="n">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="GE21" t="n">
-        <v>-4</v>
+        <v>-4.3</v>
       </c>
       <c r="GF21" t="n">
-        <v>-5.6</v>
+        <v>-5.7</v>
       </c>
       <c r="GG21" t="n">
         <v>-1</v>
       </c>
       <c r="GH21" t="n">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="GI21" t="n">
-        <v>-8.6</v>
+        <v>-8.5</v>
       </c>
       <c r="GJ21" t="n">
         <v>6.5</v>
       </c>
       <c r="GK21" t="n">
-        <v>-3.4</v>
+        <v>-3.3</v>
       </c>
       <c r="GL21" t="n">
-        <v>-4.9</v>
+        <v>-4.8</v>
       </c>
       <c r="GM21" t="n">
         <v>6.7</v>
       </c>
       <c r="GN21" t="n">
-        <v>-6.9</v>
+        <v>-6.8</v>
       </c>
       <c r="GO21" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="GP21" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="GQ21" t="n">
-        <v>-3.6</v>
+        <v>-4.2</v>
       </c>
       <c r="GR21" t="n">
-        <v>1.9</v>
+        <v>1.7</v>
       </c>
       <c r="GS21" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="GT21" t="n">
         <v>0.5</v>
       </c>
-      <c r="GT21" t="n">
-        <v>0.4</v>
-      </c>
       <c r="GU21" t="n">
-        <v>-2.7</v>
+        <v>-2.6</v>
       </c>
       <c r="GV21" t="n">
-        <v>-6.1</v>
+        <v>-6</v>
       </c>
       <c r="GW21" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="GX21" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="GY21" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="GZ21" t="n">
-        <v>-6.4</v>
+        <v>-6.3</v>
       </c>
       <c r="HA21" t="inlineStr"/>
       <c r="HB21" t="n">
-        <v>-26.3</v>
+        <v>-26.1</v>
       </c>
       <c r="HC21" t="n">
-        <v>3.8</v>
+        <v>2.9</v>
       </c>
       <c r="HD21" t="n">
-        <v>-10.1</v>
+        <v>-10.4</v>
       </c>
       <c r="HE21" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="HF21" t="n">
         <v>-1.1</v>
       </c>
       <c r="HG21" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="HH21" t="n">
+        <v>-1.1</v>
+      </c>
+      <c r="HI21" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="HJ21" t="n">
+        <v>-4.8</v>
+      </c>
+      <c r="HK21" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="HL21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="HM21" t="n">
+        <v>-6.3</v>
+      </c>
+      <c r="HN21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="HO21" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="HP21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="HQ21" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="HR21" t="n">
+        <v>-3.6</v>
+      </c>
+      <c r="HS21" t="n">
         <v>-1.3</v>
       </c>
-      <c r="HI21" t="n">
+      <c r="HT21" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="HU21" t="n">
+        <v>1</v>
+      </c>
+      <c r="HV21" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="HW21" t="n">
         <v>-1.4</v>
       </c>
-      <c r="HJ21" t="n">
-        <v>-4.9</v>
-      </c>
-      <c r="HK21" t="n">
-        <v>-5.6</v>
-      </c>
-      <c r="HL21" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="HM21" t="n">
-        <v>-6.6</v>
-      </c>
-      <c r="HN21" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="HO21" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="HP21" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="HQ21" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="HR21" t="n">
-        <v>-3.7</v>
-      </c>
-      <c r="HS21" t="n">
-        <v>-1.5</v>
-      </c>
-      <c r="HT21" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="HU21" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="HV21" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="HW21" t="n">
-        <v>-1.7</v>
-      </c>
       <c r="HX21" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="HY21" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="HZ21" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
+      </c>
+      <c r="IA21" t="n">
+        <v>4.6</v>
       </c>
     </row>
     <row r="22">
@@ -16108,6 +16173,9 @@
       <c r="HZ22" t="n">
         <v>18.4</v>
       </c>
+      <c r="IA22" t="n">
+        <v>16.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -16812,6 +16880,9 @@
       <c r="HZ23" t="n">
         <v>23.8</v>
       </c>
+      <c r="IA23" t="n">
+        <v>27.6</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -17516,6 +17587,9 @@
       <c r="HZ24" t="n">
         <v>5.5</v>
       </c>
+      <c r="IA24" t="n">
+        <v>5.3</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -18220,6 +18294,9 @@
       <c r="HZ25" t="n">
         <v>19.3</v>
       </c>
+      <c r="IA25" t="n">
+        <v>15.6</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -18924,6 +19001,9 @@
       <c r="HZ26" t="n">
         <v>14.5</v>
       </c>
+      <c r="IA26" t="n">
+        <v>19.2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -19067,7 +19147,7 @@
         <v>-2.5</v>
       </c>
       <c r="AU27" t="n">
-        <v>-2.8</v>
+        <v>-2.9</v>
       </c>
       <c r="AV27" t="n">
         <v>-3.3</v>
@@ -19079,7 +19159,7 @@
         <v>0.9</v>
       </c>
       <c r="AY27" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AZ27" t="n">
         <v>3.5</v>
@@ -19103,13 +19183,13 @@
         <v>3.3</v>
       </c>
       <c r="BG27" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="BH27" t="n">
         <v>6.6</v>
       </c>
       <c r="BI27" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="BJ27" t="n">
         <v>0.7</v>
@@ -19139,7 +19219,7 @@
         <v>0.6</v>
       </c>
       <c r="BS27" t="n">
-        <v>-0.1</v>
+        <v>-0.2</v>
       </c>
       <c r="BT27" t="n">
         <v>-4.8</v>
@@ -19160,13 +19240,13 @@
         <v>-4.2</v>
       </c>
       <c r="BZ27" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="CA27" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="CB27" t="n">
-        <v>-0.1</v>
+        <v>0</v>
       </c>
       <c r="CC27" t="n">
         <v>-2</v>
@@ -19187,7 +19267,7 @@
         <v>-1</v>
       </c>
       <c r="CI27" t="n">
-        <v>-0.5</v>
+        <v>-0.4</v>
       </c>
       <c r="CJ27" t="n">
         <v>-1.8</v>
@@ -19196,13 +19276,13 @@
         <v>-7</v>
       </c>
       <c r="CL27" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8.300000000000001</v>
       </c>
       <c r="CM27" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="CN27" t="n">
-        <v>-3.8</v>
+        <v>-3.7</v>
       </c>
       <c r="CO27" t="n">
         <v>-2.3</v>
@@ -19211,7 +19291,7 @@
         <v>-4.9</v>
       </c>
       <c r="CQ27" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.9</v>
       </c>
       <c r="CR27" t="n">
         <v>-7.2</v>
@@ -19223,10 +19303,10 @@
         <v>-1.6</v>
       </c>
       <c r="CU27" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="CV27" t="n">
-        <v>-3.8</v>
+        <v>-3.9</v>
       </c>
       <c r="CW27" t="n">
         <v>-0.4</v>
@@ -19238,22 +19318,22 @@
         <v>-2.5</v>
       </c>
       <c r="CZ27" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="DA27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="DB27" t="n">
         <v>-2.2</v>
       </c>
       <c r="DC27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="DD27" t="n">
         <v>2.7</v>
       </c>
       <c r="DE27" t="n">
-        <v>-3.1</v>
+        <v>-3.2</v>
       </c>
       <c r="DF27" t="n">
         <v>1.7</v>
@@ -19271,10 +19351,10 @@
         <v>-2.5</v>
       </c>
       <c r="DK27" t="n">
-        <v>-9.1</v>
+        <v>-9</v>
       </c>
       <c r="DL27" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="DM27" t="n">
         <v>-10.5</v>
@@ -19283,13 +19363,13 @@
         <v>-2.9</v>
       </c>
       <c r="DO27" t="n">
-        <v>-10</v>
+        <v>-10.1</v>
       </c>
       <c r="DP27" t="n">
         <v>-0.8</v>
       </c>
       <c r="DQ27" t="n">
-        <v>-5.5</v>
+        <v>-5.6</v>
       </c>
       <c r="DR27" t="n">
         <v>-6.7</v>
@@ -19307,10 +19387,10 @@
         <v>-3.7</v>
       </c>
       <c r="DW27" t="n">
-        <v>-7.6</v>
+        <v>-7.5</v>
       </c>
       <c r="DX27" t="n">
-        <v>-1.7</v>
+        <v>-1.6</v>
       </c>
       <c r="DY27" t="n">
         <v>3</v>
@@ -19325,7 +19405,7 @@
         <v>-6</v>
       </c>
       <c r="EC27" t="n">
-        <v>-6.1</v>
+        <v>-6.2</v>
       </c>
       <c r="ED27" t="n">
         <v>-4.1</v>
@@ -19340,13 +19420,13 @@
         <v>-10.8</v>
       </c>
       <c r="EH27" t="n">
-        <v>-4</v>
+        <v>-4.1</v>
       </c>
       <c r="EI27" t="n">
-        <v>-7.1</v>
+        <v>-7</v>
       </c>
       <c r="EJ27" t="n">
-        <v>-9.6</v>
+        <v>-9.5</v>
       </c>
       <c r="EK27" t="n">
         <v>2.2</v>
@@ -19361,7 +19441,7 @@
         <v>-0.7</v>
       </c>
       <c r="EO27" t="n">
-        <v>-26.5</v>
+        <v>-26.6</v>
       </c>
       <c r="EP27" t="n">
         <v>-13.6</v>
@@ -19376,13 +19456,13 @@
         <v>-1.7</v>
       </c>
       <c r="ET27" t="n">
-        <v>-5.3</v>
+        <v>-5.4</v>
       </c>
       <c r="EU27" t="n">
-        <v>8</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="EV27" t="n">
-        <v>8.1</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="EW27" t="n">
         <v>12.2</v>
@@ -19397,28 +19477,28 @@
         <v>7.7</v>
       </c>
       <c r="FA27" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="FB27" t="n">
-        <v>1.1</v>
+        <v>1</v>
       </c>
       <c r="FC27" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="FD27" t="n">
         <v>6.4</v>
       </c>
       <c r="FE27" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="FF27" t="n">
         <v>14.4</v>
       </c>
       <c r="FG27" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="FH27" t="n">
-        <v>10.7</v>
+        <v>10.8</v>
       </c>
       <c r="FI27" t="n">
         <v>2.8</v>
@@ -19430,10 +19510,10 @@
         <v>-6.5</v>
       </c>
       <c r="FL27" t="n">
-        <v>-9.5</v>
+        <v>-9.6</v>
       </c>
       <c r="FM27" t="n">
-        <v>-0.8</v>
+        <v>-0.9</v>
       </c>
       <c r="FN27" t="n">
         <v>6.6</v>
@@ -19448,16 +19528,16 @@
         <v>11.2</v>
       </c>
       <c r="FR27" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="FS27" t="n">
-        <v>-4.9</v>
+        <v>-4.6</v>
       </c>
       <c r="FT27" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="FU27" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="FV27" t="n">
         <v>7.8</v>
@@ -19466,7 +19546,7 @@
         <v>8.4</v>
       </c>
       <c r="FX27" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="FY27" t="n">
         <v>12.2</v>
@@ -19475,7 +19555,7 @@
         <v>12.4</v>
       </c>
       <c r="GA27" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="GB27" t="n">
         <v>12.2</v>
@@ -19484,13 +19564,13 @@
         <v>10.8</v>
       </c>
       <c r="GD27" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="GE27" t="n">
-        <v>-3</v>
+        <v>-2.5</v>
       </c>
       <c r="GF27" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="GG27" t="n">
         <v>-7.5</v>
@@ -19499,34 +19579,34 @@
         <v>4.6</v>
       </c>
       <c r="GI27" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="GJ27" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="GK27" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="GL27" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="GM27" t="n">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="GN27" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="GO27" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="GP27" t="n">
-        <v>-1</v>
+        <v>-1.2</v>
       </c>
       <c r="GQ27" t="n">
-        <v>9.699999999999999</v>
+        <v>10.4</v>
       </c>
       <c r="GR27" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="GS27" t="n">
         <v>8.199999999999999</v>
@@ -19538,95 +19618,98 @@
         <v>3.7</v>
       </c>
       <c r="GV27" t="n">
+        <v>-2.8</v>
+      </c>
+      <c r="GW27" t="n">
         <v>-2.7</v>
       </c>
-      <c r="GW27" t="n">
-        <v>-2.6</v>
-      </c>
       <c r="GX27" t="n">
-        <v>-0.7</v>
+        <v>-0.8</v>
       </c>
       <c r="GY27" t="n">
-        <v>-7.1</v>
+        <v>-7.3</v>
       </c>
       <c r="GZ27" t="n">
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
       <c r="HA27" t="inlineStr"/>
       <c r="HB27" t="n">
-        <v>-28.9</v>
+        <v>-29.1</v>
       </c>
       <c r="HC27" t="n">
-        <v>-26.7</v>
+        <v>-25.8</v>
       </c>
       <c r="HD27" t="n">
-        <v>-23.9</v>
+        <v>-23.6</v>
       </c>
       <c r="HE27" t="n">
-        <v>-13.6</v>
+        <v>-13.5</v>
       </c>
       <c r="HF27" t="n">
-        <v>-10.4</v>
+        <v>-10.5</v>
       </c>
       <c r="HG27" t="n">
-        <v>-17.1</v>
+        <v>-17.2</v>
       </c>
       <c r="HH27" t="n">
-        <v>-12.6</v>
+        <v>-12.7</v>
       </c>
       <c r="HI27" t="n">
-        <v>-13.6</v>
+        <v>-13.8</v>
       </c>
       <c r="HJ27" t="n">
-        <v>-12</v>
+        <v>-12.2</v>
       </c>
       <c r="HK27" t="n">
-        <v>-5.4</v>
+        <v>-5.7</v>
       </c>
       <c r="HL27" t="n">
-        <v>-19.9</v>
+        <v>-20.2</v>
       </c>
       <c r="HM27" t="n">
-        <v>-6</v>
+        <v>-6.1</v>
       </c>
       <c r="HN27" t="n">
-        <v>-11.5</v>
+        <v>-11.7</v>
       </c>
       <c r="HO27" t="n">
-        <v>0.7</v>
+        <v>1.8</v>
       </c>
       <c r="HP27" t="n">
-        <v>-1.7</v>
+        <v>-1.3</v>
       </c>
       <c r="HQ27" t="n">
-        <v>8.6</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="HR27" t="n">
         <v>4.9</v>
       </c>
       <c r="HS27" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="HT27" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="HU27" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="HV27" t="n">
-        <v>-0.8</v>
+        <v>-1</v>
       </c>
       <c r="HW27" t="n">
-        <v>-2.8</v>
+        <v>-3.1</v>
       </c>
       <c r="HX27" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="HY27" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="HZ27" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="IA27" t="n">
         <v>2.7</v>
-      </c>
-      <c r="HY27" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="HZ27" t="n">
-        <v>12.6</v>
       </c>
     </row>
     <row r="28">
@@ -20332,6 +20415,9 @@
       <c r="HZ28" t="n">
         <v>-7.1</v>
       </c>
+      <c r="IA28" t="n">
+        <v>-9.199999999999999</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
@@ -20418,19 +20504,19 @@
         <v>-8.800000000000001</v>
       </c>
       <c r="AB29" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="AC29" t="n">
         <v>-3.4</v>
       </c>
       <c r="AD29" t="n">
-        <v>-0.2</v>
+        <v>-0.1</v>
       </c>
       <c r="AE29" t="n">
-        <v>-8</v>
+        <v>-7.8</v>
       </c>
       <c r="AF29" t="n">
-        <v>-3.1</v>
+        <v>-3</v>
       </c>
       <c r="AG29" t="n">
         <v>-0.1</v>
@@ -20439,49 +20525,49 @@
         <v>-4.6</v>
       </c>
       <c r="AI29" t="n">
-        <v>-2.5</v>
+        <v>-2.6</v>
       </c>
       <c r="AJ29" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="AK29" t="n">
-        <v>-1.2</v>
+        <v>-1.5</v>
       </c>
       <c r="AL29" t="n">
         <v>-4.7</v>
       </c>
       <c r="AM29" t="n">
-        <v>-7.2</v>
+        <v>-7.1</v>
       </c>
       <c r="AN29" t="n">
         <v>-0.8</v>
       </c>
       <c r="AO29" t="n">
-        <v>-4.2</v>
+        <v>-4.1</v>
       </c>
       <c r="AP29" t="n">
-        <v>-7.8</v>
+        <v>-7.6</v>
       </c>
       <c r="AQ29" t="n">
-        <v>-1.5</v>
+        <v>-1.4</v>
       </c>
       <c r="AR29" t="n">
-        <v>-3.7</v>
+        <v>-3.6</v>
       </c>
       <c r="AS29" t="n">
-        <v>-2.4</v>
+        <v>-2.3</v>
       </c>
       <c r="AT29" t="n">
         <v>-0.2</v>
       </c>
       <c r="AU29" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="AV29" t="n">
-        <v>-5.3</v>
+        <v>-5.4</v>
       </c>
       <c r="AW29" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AX29" t="n">
         <v>-5.9</v>
@@ -20490,34 +20576,34 @@
         <v>-0.7</v>
       </c>
       <c r="AZ29" t="n">
-        <v>-6.9</v>
+        <v>-7</v>
       </c>
       <c r="BA29" t="n">
-        <v>-5</v>
+        <v>-4.9</v>
       </c>
       <c r="BB29" t="n">
-        <v>-2.5</v>
+        <v>-2.4</v>
       </c>
       <c r="BC29" t="n">
-        <v>-2.1</v>
+        <v>-2</v>
       </c>
       <c r="BD29" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="BE29" t="n">
-        <v>-5.2</v>
+        <v>-5.1</v>
       </c>
       <c r="BF29" t="n">
-        <v>-3.3</v>
+        <v>-3.2</v>
       </c>
       <c r="BG29" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.6</v>
       </c>
       <c r="BH29" t="n">
         <v>-0.9</v>
       </c>
       <c r="BI29" t="n">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="BJ29" t="n">
         <v>-2.7</v>
@@ -20526,103 +20612,103 @@
         <v>0.3</v>
       </c>
       <c r="BL29" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="BM29" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="BN29" t="n">
-        <v>-4.2</v>
+        <v>-4</v>
       </c>
       <c r="BO29" t="n">
-        <v>-2.9</v>
+        <v>-2.8</v>
       </c>
       <c r="BP29" t="n">
-        <v>-6.3</v>
+        <v>-6.1</v>
       </c>
       <c r="BQ29" t="n">
         <v>3</v>
       </c>
       <c r="BR29" t="n">
-        <v>-0.4</v>
+        <v>-0.3</v>
       </c>
       <c r="BS29" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="BT29" t="n">
-        <v>-5.3</v>
+        <v>-5.2</v>
       </c>
       <c r="BU29" t="n">
-        <v>-2.3</v>
+        <v>-2.4</v>
       </c>
       <c r="BV29" t="n">
         <v>-0.9</v>
       </c>
       <c r="BW29" t="n">
-        <v>-5.6</v>
+        <v>-5.5</v>
       </c>
       <c r="BX29" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="BY29" t="n">
-        <v>-3.7</v>
+        <v>-3.9</v>
       </c>
       <c r="BZ29" t="n">
         <v>-3.1</v>
       </c>
       <c r="CA29" t="n">
-        <v>-6.9</v>
+        <v>-6.7</v>
       </c>
       <c r="CB29" t="n">
-        <v>-7.2</v>
+        <v>-7</v>
       </c>
       <c r="CC29" t="n">
-        <v>-10.9</v>
+        <v>-10.8</v>
       </c>
       <c r="CD29" t="n">
-        <v>-5.8</v>
+        <v>-5.7</v>
       </c>
       <c r="CE29" t="n">
-        <v>-3.2</v>
+        <v>-3.3</v>
       </c>
       <c r="CF29" t="n">
-        <v>-5.3</v>
+        <v>-5.2</v>
       </c>
       <c r="CG29" t="n">
         <v>-5.7</v>
       </c>
       <c r="CH29" t="n">
-        <v>-4.3</v>
+        <v>-4.4</v>
       </c>
       <c r="CI29" t="n">
         <v>-8.5</v>
       </c>
       <c r="CJ29" t="n">
-        <v>-0.8</v>
+        <v>-1.1</v>
       </c>
       <c r="CK29" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="CL29" t="n">
         <v>13.9</v>
       </c>
       <c r="CM29" t="n">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="CN29" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="CO29" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="CP29" t="n">
-        <v>-8.1</v>
+        <v>-7.9</v>
       </c>
       <c r="CQ29" t="n">
-        <v>-4.5</v>
+        <v>-4.6</v>
       </c>
       <c r="CR29" t="n">
-        <v>-10</v>
+        <v>-9.9</v>
       </c>
       <c r="CS29" t="n">
         <v>-5.2</v>
@@ -20631,271 +20717,271 @@
         <v>-8.1</v>
       </c>
       <c r="CU29" t="n">
-        <v>-3.6</v>
+        <v>-3.7</v>
       </c>
       <c r="CV29" t="n">
         <v>-0.6</v>
       </c>
       <c r="CW29" t="n">
-        <v>-4.7</v>
+        <v>-4.8</v>
       </c>
       <c r="CX29" t="n">
-        <v>-7.5</v>
+        <v>-7.4</v>
       </c>
       <c r="CY29" t="n">
-        <v>-0.7</v>
+        <v>-0.9</v>
       </c>
       <c r="CZ29" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8.199999999999999</v>
       </c>
       <c r="DA29" t="n">
-        <v>-5</v>
+        <v>-5.1</v>
       </c>
       <c r="DB29" t="n">
-        <v>-7.9</v>
+        <v>-7.7</v>
       </c>
       <c r="DC29" t="n">
-        <v>-4.4</v>
+        <v>-4.5</v>
       </c>
       <c r="DD29" t="n">
-        <v>-5.4</v>
+        <v>-5.5</v>
       </c>
       <c r="DE29" t="n">
-        <v>-14.4</v>
+        <v>-14.2</v>
       </c>
       <c r="DF29" t="n">
-        <v>-4.3</v>
+        <v>-4.5</v>
       </c>
       <c r="DG29" t="n">
-        <v>-5.9</v>
+        <v>-6</v>
       </c>
       <c r="DH29" t="n">
-        <v>-16.7</v>
+        <v>-16.5</v>
       </c>
       <c r="DI29" t="n">
         <v>-8.199999999999999</v>
       </c>
       <c r="DJ29" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8</v>
       </c>
       <c r="DK29" t="n">
-        <v>-9.9</v>
+        <v>-10.1</v>
       </c>
       <c r="DL29" t="n">
-        <v>-11</v>
+        <v>-11.1</v>
       </c>
       <c r="DM29" t="n">
         <v>-3.6</v>
       </c>
       <c r="DN29" t="n">
-        <v>-8.199999999999999</v>
+        <v>-8</v>
       </c>
       <c r="DO29" t="n">
-        <v>-8.6</v>
+        <v>-8.699999999999999</v>
       </c>
       <c r="DP29" t="n">
-        <v>-5.9</v>
+        <v>-6.1</v>
       </c>
       <c r="DQ29" t="n">
-        <v>-6.3</v>
+        <v>-6.2</v>
       </c>
       <c r="DR29" t="n">
-        <v>-3.1</v>
+        <v>-3.2</v>
       </c>
       <c r="DS29" t="n">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="DT29" t="n">
-        <v>-5.4</v>
+        <v>-5.1</v>
       </c>
       <c r="DU29" t="n">
-        <v>-9.699999999999999</v>
+        <v>-9.6</v>
       </c>
       <c r="DV29" t="n">
-        <v>-11.5</v>
+        <v>-11.3</v>
       </c>
       <c r="DW29" t="n">
-        <v>-3.2</v>
+        <v>-3.6</v>
       </c>
       <c r="DX29" t="n">
-        <v>-3.6</v>
+        <v>-3.9</v>
       </c>
       <c r="DY29" t="n">
-        <v>-14.4</v>
+        <v>-14.3</v>
       </c>
       <c r="DZ29" t="n">
-        <v>-6.8</v>
+        <v>-6.7</v>
       </c>
       <c r="EA29" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="EB29" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="EC29" t="n">
         <v>-5.3</v>
       </c>
       <c r="ED29" t="n">
-        <v>-3</v>
+        <v>-2.9</v>
       </c>
       <c r="EE29" t="n">
-        <v>-15.1</v>
+        <v>-14.9</v>
       </c>
       <c r="EF29" t="n">
-        <v>-15.9</v>
+        <v>-15.4</v>
       </c>
       <c r="EG29" t="n">
         <v>-8.4</v>
       </c>
       <c r="EH29" t="n">
-        <v>-12</v>
+        <v>-11.8</v>
       </c>
       <c r="EI29" t="n">
-        <v>-4.2</v>
+        <v>-4.6</v>
       </c>
       <c r="EJ29" t="n">
-        <v>6.2</v>
+        <v>5.7</v>
       </c>
       <c r="EK29" t="n">
         <v>-6.6</v>
       </c>
       <c r="EL29" t="n">
-        <v>11.5</v>
+        <v>11.6</v>
       </c>
       <c r="EM29" t="n">
-        <v>-3</v>
+        <v>-3.1</v>
       </c>
       <c r="EN29" t="n">
-        <v>-3.9</v>
+        <v>-4.1</v>
       </c>
       <c r="EO29" t="n">
         <v>-4.7</v>
       </c>
       <c r="EP29" t="n">
-        <v>-11.1</v>
+        <v>-10.8</v>
       </c>
       <c r="EQ29" t="n">
-        <v>-12.4</v>
+        <v>-12.2</v>
       </c>
       <c r="ER29" t="n">
-        <v>-10.8</v>
+        <v>-10.3</v>
       </c>
       <c r="ES29" t="n">
-        <v>-26.4</v>
+        <v>-26.5</v>
       </c>
       <c r="ET29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="EU29" t="n">
-        <v>-3.6</v>
+        <v>-4</v>
       </c>
       <c r="EV29" t="n">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="EW29" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="EX29" t="n">
         <v>-2.3</v>
       </c>
       <c r="EY29" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="EZ29" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="FA29" t="n">
         <v>-0.3</v>
       </c>
       <c r="FB29" t="n">
-        <v>-3.7</v>
+        <v>-3.3</v>
       </c>
       <c r="FC29" t="n">
         <v>3.6</v>
       </c>
       <c r="FD29" t="n">
-        <v>-6.1</v>
+        <v>-5.9</v>
       </c>
       <c r="FE29" t="n">
-        <v>11.4</v>
+        <v>11.3</v>
       </c>
       <c r="FF29" t="n">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="FG29" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="FH29" t="n">
-        <v>-2.3</v>
+        <v>-2.5</v>
       </c>
       <c r="FI29" t="n">
-        <v>-6.9</v>
+        <v>-6.8</v>
       </c>
       <c r="FJ29" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="FK29" t="n">
-        <v>-1.3</v>
+        <v>-1</v>
       </c>
       <c r="FL29" t="n">
-        <v>-8.300000000000001</v>
+        <v>-8</v>
       </c>
       <c r="FM29" t="n">
         <v>6.5</v>
       </c>
       <c r="FN29" t="n">
-        <v>-6.3</v>
+        <v>-5.8</v>
       </c>
       <c r="FO29" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="FP29" t="n">
-        <v>13.8</v>
+        <v>13.5</v>
       </c>
       <c r="FQ29" t="n">
-        <v>-0.4</v>
+        <v>-0.2</v>
       </c>
       <c r="FR29" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="FS29" t="n">
-        <v>-4.8</v>
+        <v>-5.7</v>
       </c>
       <c r="FT29" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="FU29" t="n">
-        <v>-2.8</v>
+        <v>-2.6</v>
       </c>
       <c r="FV29" t="n">
-        <v>-5.5</v>
+        <v>-5.3</v>
       </c>
       <c r="FW29" t="n">
-        <v>-10.1</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="FX29" t="n">
-        <v>-7.6</v>
+        <v>-7.1</v>
       </c>
       <c r="FY29" t="n">
-        <v>-5.5</v>
+        <v>-5.2</v>
       </c>
       <c r="FZ29" t="n">
-        <v>-0.7</v>
+        <v>-0.3</v>
       </c>
       <c r="GA29" t="n">
-        <v>8.300000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="GB29" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="GC29" t="n">
-        <v>-11.9</v>
+        <v>-11.5</v>
       </c>
       <c r="GD29" t="n">
         <v>-2.2</v>
       </c>
       <c r="GE29" t="n">
-        <v>-5.6</v>
+        <v>-7.2</v>
       </c>
       <c r="GF29" t="n">
         <v>-7.1</v>
@@ -20904,37 +20990,37 @@
         <v>-7</v>
       </c>
       <c r="GH29" t="n">
-        <v>-9.199999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="GI29" t="n">
-        <v>-7.4</v>
+        <v>-7.2</v>
       </c>
       <c r="GJ29" t="n">
-        <v>-5.6</v>
+        <v>-5.3</v>
       </c>
       <c r="GK29" t="n">
-        <v>-8.800000000000001</v>
+        <v>-8.4</v>
       </c>
       <c r="GL29" t="n">
-        <v>-6.6</v>
+        <v>-6.3</v>
       </c>
       <c r="GM29" t="n">
-        <v>-8.199999999999999</v>
+        <v>-7.9</v>
       </c>
       <c r="GN29" t="n">
         <v>0</v>
       </c>
       <c r="GO29" t="n">
-        <v>-2.1</v>
+        <v>-1.6</v>
       </c>
       <c r="GP29" t="n">
-        <v>-2.5</v>
+        <v>-2.3</v>
       </c>
       <c r="GQ29" t="n">
-        <v>3.8</v>
+        <v>1.3</v>
       </c>
       <c r="GR29" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="GS29" t="n">
         <v>3</v>
@@ -20943,98 +21029,101 @@
         <v>-5.3</v>
       </c>
       <c r="GU29" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="GV29" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="GW29" t="n">
-        <v>-4.2</v>
+        <v>-3.7</v>
       </c>
       <c r="GX29" t="n">
-        <v>-7</v>
+        <v>-6.6</v>
       </c>
       <c r="GY29" t="n">
-        <v>-11.6</v>
+        <v>-11.1</v>
       </c>
       <c r="GZ29" t="n">
-        <v>-12.3</v>
+        <v>-11.9</v>
       </c>
       <c r="HA29" t="inlineStr"/>
       <c r="HB29" t="n">
-        <v>-36</v>
+        <v>-35.6</v>
       </c>
       <c r="HC29" t="n">
-        <v>-10.5</v>
+        <v>-14.3</v>
       </c>
       <c r="HD29" t="n">
-        <v>-17.9</v>
+        <v>-17.6</v>
       </c>
       <c r="HE29" t="n">
         <v>-12.1</v>
       </c>
       <c r="HF29" t="n">
-        <v>1.1</v>
+        <v>0.9</v>
       </c>
       <c r="HG29" t="n">
-        <v>-6.8</v>
+        <v>-6.6</v>
       </c>
       <c r="HH29" t="n">
+        <v>-6.1</v>
+      </c>
+      <c r="HI29" t="n">
+        <v>-2.5</v>
+      </c>
+      <c r="HJ29" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="HK29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="HL29" t="n">
+        <v>-3.4</v>
+      </c>
+      <c r="HM29" t="n">
+        <v>-5.2</v>
+      </c>
+      <c r="HN29" t="n">
         <v>-6.5</v>
       </c>
-      <c r="HI29" t="n">
-        <v>-3.2</v>
-      </c>
-      <c r="HJ29" t="n">
-        <v>-0.8</v>
-      </c>
-      <c r="HK29" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="HL29" t="n">
-        <v>-4.2</v>
-      </c>
-      <c r="HM29" t="n">
-        <v>-6.1</v>
-      </c>
-      <c r="HN29" t="n">
-        <v>-7.3</v>
-      </c>
       <c r="HO29" t="n">
-        <v>0.9</v>
+        <v>-4.9</v>
       </c>
       <c r="HP29" t="n">
-        <v>-0.5</v>
+        <v>-0.2</v>
       </c>
       <c r="HQ29" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="HR29" t="n">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="HS29" t="n">
-        <v>-5.8</v>
+        <v>-5.3</v>
       </c>
       <c r="HT29" t="n">
-        <v>-7.1</v>
+        <v>-6.4</v>
       </c>
       <c r="HU29" t="n">
-        <v>-10.1</v>
+        <v>-9.1</v>
       </c>
       <c r="HV29" t="n">
-        <v>-2.3</v>
+        <v>-1.8</v>
       </c>
       <c r="HW29" t="n">
-        <v>-11</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="HX29" t="n">
-        <v>-11</v>
+        <v>-9.800000000000001</v>
       </c>
       <c r="HY29" t="n">
-        <v>-6.3</v>
+        <v>-5</v>
       </c>
       <c r="HZ29" t="n">
-        <v>-4.4</v>
+        <v>-3.3</v>
+      </c>
+      <c r="IA29" t="n">
+        <v>13.1</v>
       </c>
     </row>
     <row r="30">
@@ -21740,6 +21829,9 @@
       <c r="HZ30" t="n">
         <v>-18.2</v>
       </c>
+      <c r="IA30" t="n">
+        <v>-17.2</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
@@ -22444,6 +22536,9 @@
       <c r="HZ31" t="n">
         <v>-30.7</v>
       </c>
+      <c r="IA31" t="n">
+        <v>-27.6</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
@@ -23148,6 +23243,9 @@
       <c r="HZ32" t="n">
         <v>-42</v>
       </c>
+      <c r="IA32" t="n">
+        <v>-39.4</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -23851,6 +23949,9 @@
       </c>
       <c r="HZ33" t="n">
         <v>-16.7</v>
+      </c>
+      <c r="IA33" t="n">
+        <v>-16.5</v>
       </c>
     </row>
   </sheetData>
